--- a/Datasets/Analises/O total de devoluções de cada produto.xlsx
+++ b/Datasets/Analises/O total de devoluções de cada produto.xlsx
@@ -49,2539 +49,2539 @@
     <t>SPLIT INV 8501À10000</t>
   </si>
   <si>
+    <t>FOGÕES 2</t>
+  </si>
+  <si>
     <t>TV 4K ATÉ 59"</t>
   </si>
   <si>
-    <t>FOGÕES 2</t>
+    <t>IMUNOMOD/IMONOES REF</t>
+  </si>
+  <si>
+    <t>BALCÃO COZ MADEIRA</t>
+  </si>
+  <si>
+    <t>FORNO 1</t>
+  </si>
+  <si>
+    <t>ARTIGOS INFLÁVEIS</t>
+  </si>
+  <si>
+    <t>GRILL</t>
+  </si>
+  <si>
+    <t>SANDUICHEIRA</t>
+  </si>
+  <si>
+    <t>CARRO / MOTO PEDAL</t>
   </si>
   <si>
     <t>TAPETE</t>
   </si>
   <si>
-    <t>ARTIGOS INFLÁVEIS</t>
-  </si>
-  <si>
-    <t>BALCÃO COZ MADEIRA</t>
+    <t>ANTIFÚNGICO GEN</t>
   </si>
   <si>
     <t>SPLIT ACIMA DE 30000</t>
   </si>
   <si>
-    <t>GRILL</t>
-  </si>
-  <si>
-    <t>FORNO 1</t>
+    <t>JANELA 10001 À 18000</t>
+  </si>
+  <si>
+    <t>DVD PLAYER P/ AUTO</t>
   </si>
   <si>
     <t>TABLET</t>
   </si>
   <si>
-    <t>ANTIFÚNGICO GEN</t>
-  </si>
-  <si>
-    <t>IMUNOMOD/IMONOES REF</t>
-  </si>
-  <si>
-    <t>CARRO / MOTO PEDAL</t>
-  </si>
-  <si>
-    <t>SANDUICHEIRA</t>
-  </si>
-  <si>
-    <t>JANELA 10001 À 18000</t>
-  </si>
-  <si>
-    <t>DVD PLAYER P/ AUTO</t>
+    <t>BIC INFANTIL/CROSS</t>
+  </si>
+  <si>
+    <t>TOSTADOR/TORRADEIRA</t>
+  </si>
+  <si>
+    <t>ESCOVA DE DENTE ADUL</t>
+  </si>
+  <si>
+    <t>CADEIRA JD/PISCINA</t>
+  </si>
+  <si>
+    <t>FERRO SECO</t>
+  </si>
+  <si>
+    <t>ANTIFLATULENTO GEN</t>
+  </si>
+  <si>
+    <t>P/MATERIAIS ELÉTRICO</t>
+  </si>
+  <si>
+    <t>FREEZER HORIZONTAL</t>
+  </si>
+  <si>
+    <t>FORRÓ</t>
+  </si>
+  <si>
+    <t>FERRAM AUTOMOTIVAS</t>
+  </si>
+  <si>
+    <t>BICICL ADULTO MASC</t>
+  </si>
+  <si>
+    <t>SMART MULTISIM LIVRE</t>
+  </si>
+  <si>
+    <t>LAXANTE SIM</t>
+  </si>
+  <si>
+    <t>KIT COZINHA DE AÇO</t>
   </si>
   <si>
     <t>BARBEADOR</t>
   </si>
   <si>
+    <t>HIPOGLICEMI ORAL GEN</t>
+  </si>
+  <si>
+    <t>MÁQUINA DE COSTURA</t>
+  </si>
+  <si>
     <t>SALGADOS</t>
   </si>
   <si>
-    <t>SMART MULTISIM LIVRE</t>
+    <t>ANTIFÚNGICO REF</t>
+  </si>
+  <si>
+    <t>CASE E PROTETOR</t>
+  </si>
+  <si>
+    <t>KIT/ACESS P/ALIMENT</t>
+  </si>
+  <si>
+    <t>GEL E CREME P/PENTEA</t>
   </si>
   <si>
     <t>CARRO/MOTO ELÉTRICA</t>
   </si>
   <si>
-    <t>TOSTADOR/TORRADEIRA</t>
-  </si>
-  <si>
-    <t>FORRÓ</t>
-  </si>
-  <si>
-    <t>BICICL ADULTO MASC</t>
-  </si>
-  <si>
-    <t>P/MATERIAIS ELÉTRICO</t>
-  </si>
-  <si>
-    <t>LAXANTE SIM</t>
-  </si>
-  <si>
-    <t>GEL E CREME P/PENTEA</t>
-  </si>
-  <si>
-    <t>CASE E PROTETOR</t>
-  </si>
-  <si>
-    <t>ANTIFLATULENTO GEN</t>
-  </si>
-  <si>
-    <t>ESCOVA DE DENTE ADUL</t>
-  </si>
-  <si>
-    <t>FREEZER HORIZONTAL</t>
-  </si>
-  <si>
-    <t>CADEIRA JD/PISCINA</t>
-  </si>
-  <si>
-    <t>KIT COZINHA DE AÇO</t>
-  </si>
-  <si>
-    <t>ANTIFÚNGICO REF</t>
-  </si>
-  <si>
-    <t>FERRAM AUTOMOTIVAS</t>
-  </si>
-  <si>
-    <t>KIT/ACESS P/ALIMENT</t>
-  </si>
-  <si>
-    <t>BIC INFANTIL/CROSS</t>
-  </si>
-  <si>
-    <t>MÁQUINA DE COSTURA</t>
-  </si>
-  <si>
-    <t>FERRO SECO</t>
-  </si>
-  <si>
-    <t>HIPOGLICEMI ORAL GEN</t>
+    <t>CHALEIRA ELÉTRICA</t>
   </si>
   <si>
     <t>ESMERILHADEIRA</t>
   </si>
   <si>
+    <t>ALTO-FALANTES</t>
+  </si>
+  <si>
+    <t>ACESS INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>MOTOR ESTACIONÁRIO</t>
+  </si>
+  <si>
+    <t>FRALDA G</t>
+  </si>
+  <si>
+    <t>EDREDON</t>
+  </si>
+  <si>
+    <t>CENTRÍFUGA ELETROPOR</t>
+  </si>
+  <si>
+    <t>SECADORA DE ROUPA</t>
+  </si>
+  <si>
+    <t>TELEFONE CELULAR 2</t>
+  </si>
+  <si>
+    <t>PASTAS</t>
+  </si>
+  <si>
+    <t>AR-COND CASSETE</t>
+  </si>
+  <si>
+    <t>HIDRADANTE CORPORAL</t>
+  </si>
+  <si>
+    <t>ANTI-HEMORROIDA REF</t>
+  </si>
+  <si>
+    <t>TECLADO/TECLADO+MOUS</t>
+  </si>
+  <si>
+    <t>MÓVEL BAR</t>
+  </si>
+  <si>
+    <t>GELADEIRA 1 PORTA</t>
+  </si>
+  <si>
+    <t>JOGO AMERICANO</t>
+  </si>
+  <si>
+    <t>ANTIANÊMICO REF</t>
+  </si>
+  <si>
+    <t>CONDICIONADOR INFANT</t>
+  </si>
+  <si>
     <t>BONECOS</t>
   </si>
   <si>
-    <t>FRALDA G</t>
-  </si>
-  <si>
-    <t>MÓVEL BAR</t>
+    <t>BASE, CORRETIVO E PÓ</t>
+  </si>
+  <si>
+    <t>PENTES, ESCO E ACESS</t>
+  </si>
+  <si>
+    <t>PERSI/CORTINA/DECOR</t>
+  </si>
+  <si>
+    <t>MESA P/CABECEIRA</t>
+  </si>
+  <si>
+    <t>ANTI-INF ESTEROI REF</t>
+  </si>
+  <si>
+    <t>MESA LATERAL</t>
+  </si>
+  <si>
+    <t>RELÓGIO FEM ANALÓG</t>
+  </si>
+  <si>
+    <t>ABAJOUR</t>
+  </si>
+  <si>
+    <t>DANCE&amp;ELETR/FLASHBCK</t>
+  </si>
+  <si>
+    <t>NOVELA&amp;SÉRIE</t>
+  </si>
+  <si>
+    <t>DVD SHOW</t>
+  </si>
+  <si>
+    <t>PATINS/PATINETE/SKAT</t>
+  </si>
+  <si>
+    <t>ANTIDIARREICO SIM</t>
   </si>
   <si>
     <t>MAMADEIRAS, BICOS</t>
   </si>
   <si>
-    <t>NOVELA&amp;SÉRIE</t>
-  </si>
-  <si>
-    <t>SECADORA DE ROUPA</t>
-  </si>
-  <si>
-    <t>AR-COND CASSETE</t>
+    <t>MIXER</t>
+  </si>
+  <si>
+    <t>BIC JUVENIL/MOTONETA</t>
+  </si>
+  <si>
+    <t>HOME THEATER</t>
+  </si>
+  <si>
+    <t>ESPORTE INFANTIL</t>
+  </si>
+  <si>
+    <t>ANTIOSTEOPORÓTIC GEN</t>
+  </si>
+  <si>
+    <t>FRALDA P</t>
+  </si>
+  <si>
+    <t>PORTÁTIL ELETRO</t>
+  </si>
+  <si>
+    <t>CARRINHOS &amp; CIA</t>
+  </si>
+  <si>
+    <t>FOGÃO 4 BOCAS</t>
+  </si>
+  <si>
+    <t>FOGÃO 5 BOCAS</t>
+  </si>
+  <si>
+    <t>CHURRASQUEIRA ELÉTRI</t>
+  </si>
+  <si>
+    <t>FOGÃO 6 BOCAS</t>
   </si>
   <si>
     <t>TERMOGÊNICO</t>
   </si>
   <si>
-    <t>ACESS INFORMÁTICA</t>
-  </si>
-  <si>
-    <t>CONDICIONADOR INFANT</t>
-  </si>
-  <si>
-    <t>FRALDA P</t>
-  </si>
-  <si>
-    <t>ANTI-HEMORROIDA REF</t>
-  </si>
-  <si>
-    <t>ALTO-FALANTES</t>
-  </si>
-  <si>
-    <t>TECLADO/TECLADO+MOUS</t>
-  </si>
-  <si>
-    <t>EDREDON</t>
-  </si>
-  <si>
-    <t>MESA LATERAL</t>
-  </si>
-  <si>
-    <t>PATINS/PATINETE/SKAT</t>
-  </si>
-  <si>
-    <t>TELEFONE CELULAR 2</t>
-  </si>
-  <si>
-    <t>FOGÃO 5 BOCAS</t>
-  </si>
-  <si>
-    <t>PASTAS</t>
-  </si>
-  <si>
-    <t>CARRINHOS &amp; CIA</t>
-  </si>
-  <si>
-    <t>HOME THEATER</t>
-  </si>
-  <si>
-    <t>ABAJOUR</t>
-  </si>
-  <si>
-    <t>MESA P/CABECEIRA</t>
-  </si>
-  <si>
-    <t>GELADEIRA 1 PORTA</t>
+    <t>ABSORVENTE</t>
   </si>
   <si>
     <t>MERGULHO</t>
   </si>
   <si>
-    <t>BIC JUVENIL/MOTONETA</t>
-  </si>
-  <si>
-    <t>FOGÃO 4 BOCAS</t>
-  </si>
-  <si>
-    <t>RELÓGIO FEM ANALÓG</t>
-  </si>
-  <si>
-    <t>ANTIOSTEOPORÓTIC GEN</t>
-  </si>
-  <si>
-    <t>BASE, CORRETIVO E PÓ</t>
+    <t>SALA DE JANTAR 5 PÇS</t>
   </si>
   <si>
     <t>LAVADORA 1</t>
   </si>
   <si>
-    <t>HIDRADANTE CORPORAL</t>
-  </si>
-  <si>
-    <t>CHURRASQUEIRA ELÉTRI</t>
-  </si>
-  <si>
-    <t>DANCE&amp;ELETR/FLASHBCK</t>
-  </si>
-  <si>
-    <t>JOGO AMERICANO</t>
-  </si>
-  <si>
-    <t>ESPORTE INFANTIL</t>
-  </si>
-  <si>
-    <t>PERSI/CORTINA/DECOR</t>
-  </si>
-  <si>
-    <t>ANTI-INF ESTEROI REF</t>
-  </si>
-  <si>
-    <t>ABSORVENTE</t>
-  </si>
-  <si>
-    <t>FOGÃO 6 BOCAS</t>
-  </si>
-  <si>
-    <t>CENTRÍFUGA ELETROPOR</t>
-  </si>
-  <si>
-    <t>SALA DE JANTAR 5 PÇS</t>
-  </si>
-  <si>
-    <t>CHALEIRA ELÉTRICA</t>
-  </si>
-  <si>
-    <t>ANTIANÊMICO REF</t>
-  </si>
-  <si>
-    <t>DVD SHOW</t>
-  </si>
-  <si>
-    <t>PORTÁTIL ELETRO</t>
-  </si>
-  <si>
-    <t>MOTOR ESTACIONÁRIO</t>
-  </si>
-  <si>
-    <t>MIXER</t>
-  </si>
-  <si>
-    <t>PENTES, ESCO E ACESS</t>
-  </si>
-  <si>
-    <t>ANTIDIARREICO SIM</t>
+    <t>BABA ELETRÔNICA</t>
+  </si>
+  <si>
+    <t>MOTOBOMBA</t>
+  </si>
+  <si>
+    <t>PORTÁTIL ANTENAS 2</t>
+  </si>
+  <si>
+    <t>PORT FÇ VC MESMO 2</t>
+  </si>
+  <si>
+    <t>ANTIALÉRGICO GEN</t>
+  </si>
+  <si>
+    <t>PORTÁTIL ELETRO 2</t>
+  </si>
+  <si>
+    <t>SPLIT ATÉ 8500 BTUS</t>
+  </si>
+  <si>
+    <t>SERV INSTAL ELECTROL</t>
+  </si>
+  <si>
+    <t>FRALDA ADULTO</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS X-BOX</t>
+  </si>
+  <si>
+    <t>MASSAGEADOR</t>
+  </si>
+  <si>
+    <t>FORNO 2</t>
+  </si>
+  <si>
+    <t>TOALHA DE BANHO</t>
+  </si>
+  <si>
+    <t>QUADROS E ESPELHOS</t>
+  </si>
+  <si>
+    <t>BOMBA D'ÁGUA</t>
+  </si>
+  <si>
+    <t>SANDUICHEIRA INDUSTR</t>
+  </si>
+  <si>
+    <t>GELADEIRA 1</t>
+  </si>
+  <si>
+    <t>BRONCODILATADOR REF</t>
+  </si>
+  <si>
+    <t>COMPUTADORES</t>
+  </si>
+  <si>
+    <t>CENTRÍFUGA L BRANCA</t>
+  </si>
+  <si>
+    <t>ANTIANGINOSO REF</t>
+  </si>
+  <si>
+    <t>VENTILADOR DE MESA</t>
+  </si>
+  <si>
+    <t>REM D CALOS VERU SIM</t>
+  </si>
+  <si>
+    <t>LVR INF/JUVEN/QUADRI</t>
+  </si>
+  <si>
+    <t>PANELA DE PRESSÃO</t>
+  </si>
+  <si>
+    <t>BICA D'ÁGUA</t>
+  </si>
+  <si>
+    <t>ADORNO</t>
+  </si>
+  <si>
+    <t>ANTIBACTERIANO SIM</t>
+  </si>
+  <si>
+    <t>DESCONGES OCULAR SIM</t>
+  </si>
+  <si>
+    <t>PORTA-RETRATO</t>
+  </si>
+  <si>
+    <t>TELEVISOR LCD 1</t>
+  </si>
+  <si>
+    <t>CREME P/PENTEAR</t>
+  </si>
+  <si>
+    <t>FREEZERS 1</t>
+  </si>
+  <si>
+    <t>CINZEIRO</t>
+  </si>
+  <si>
+    <t>CADEIRÃO</t>
+  </si>
+  <si>
+    <t>SCANNER</t>
+  </si>
+  <si>
+    <t>BUFFET</t>
+  </si>
+  <si>
+    <t>MESA AVULSA</t>
+  </si>
+  <si>
+    <t>JOGOS DIVERSOS LAZER</t>
+  </si>
+  <si>
+    <t>TV LED DE 40" À 43"</t>
+  </si>
+  <si>
+    <t>SECADORA 2</t>
+  </si>
+  <si>
+    <t>COIFA 2</t>
+  </si>
+  <si>
+    <t>ANTIRREUMÁTICO GEN</t>
+  </si>
+  <si>
+    <t>COLCHÃO P/ BERÇO</t>
+  </si>
+  <si>
+    <t>FURADEIRA/PARAFUSADE</t>
+  </si>
+  <si>
+    <t>CÂMARA DE AR</t>
+  </si>
+  <si>
+    <t>CONSOLES</t>
+  </si>
+  <si>
+    <t>RECIBOS</t>
+  </si>
+  <si>
+    <t>MED PRES/GLIC/OUTROS</t>
+  </si>
+  <si>
+    <t>SECADORA 1</t>
+  </si>
+  <si>
+    <t>LAVA-LOUÇAS</t>
+  </si>
+  <si>
+    <t>REG D FUNÇÃO INT REF</t>
+  </si>
+  <si>
+    <t>CREME DE TRATAMENTO</t>
+  </si>
+  <si>
+    <t>AUX TRAT OBESIDA GEN</t>
+  </si>
+  <si>
+    <t>SOM 2</t>
+  </si>
+  <si>
+    <t>SIDE BY SIDE</t>
+  </si>
+  <si>
+    <t>TV 4K ACIMA DE 69"</t>
+  </si>
+  <si>
+    <t>POLTRONA</t>
+  </si>
+  <si>
+    <t>ANTENA</t>
+  </si>
+  <si>
+    <t>BEBEDOURO DE MESA</t>
+  </si>
+  <si>
+    <t>ANTIEMÉTICO REF</t>
+  </si>
+  <si>
+    <t>ESCADAS</t>
+  </si>
+  <si>
+    <t>SOFTWARES</t>
+  </si>
+  <si>
+    <t>MOCHILA ESCOLAR</t>
+  </si>
+  <si>
+    <t>LAXANTE REF</t>
+  </si>
+  <si>
+    <t>MALA RÍGIDA</t>
+  </si>
+  <si>
+    <t>PAN ELÉT/PIPOQ/COZED</t>
+  </si>
+  <si>
+    <t>ARM AÉREO COZ AÇO</t>
+  </si>
+  <si>
+    <t>LÁPIS, DELINEADOR</t>
+  </si>
+  <si>
+    <t>MUSICAL</t>
+  </si>
+  <si>
+    <t>CADEIRA DE BAR</t>
+  </si>
+  <si>
+    <t>MÍDIAS X-BOX</t>
+  </si>
+  <si>
+    <t>TV 4K DE 60" À 69"</t>
+  </si>
+  <si>
+    <t>RECARGA VIRTUAL</t>
+  </si>
+  <si>
+    <t>COBRELEITO/COLCHA</t>
+  </si>
+  <si>
+    <t>FERRO À VAPOR</t>
+  </si>
+  <si>
+    <t>LAV AUTO À PARTIR 12</t>
+  </si>
+  <si>
+    <t>COMPLEMENTO MÓVEIS</t>
+  </si>
+  <si>
+    <t>HEPATOPROTETOR REF</t>
+  </si>
+  <si>
+    <t>FRALDA RN</t>
+  </si>
+  <si>
+    <t>SOFÁ DE CANTO</t>
+  </si>
+  <si>
+    <t>HD EXTERNO</t>
+  </si>
+  <si>
+    <t>CONDICIONADOR DERMO</t>
+  </si>
+  <si>
+    <t>PEN DRIVE</t>
+  </si>
+  <si>
+    <t>RECEPTOR ANTENA</t>
+  </si>
+  <si>
+    <t>COLCH ORTOP/SEM SOLT</t>
+  </si>
+  <si>
+    <t>ROUP CORRER/BASC</t>
+  </si>
+  <si>
+    <t>SERRA MÁRMORE</t>
+  </si>
+  <si>
+    <t>JANELA ATÉ 8500 BTUS</t>
+  </si>
+  <si>
+    <t>CERA DEPILATÓRIA</t>
+  </si>
+  <si>
+    <t>PROCESSADOR ALIMENTO</t>
+  </si>
+  <si>
+    <t>ANTIPSICÓTICO GEN</t>
+  </si>
+  <si>
+    <t>PÓ DESCOLORANTE</t>
   </si>
   <si>
     <t>MOUSE</t>
   </si>
   <si>
-    <t>ANTIALÉRGICO GEN</t>
-  </si>
-  <si>
-    <t>FORNO 2</t>
-  </si>
-  <si>
-    <t>ANTENA</t>
-  </si>
-  <si>
-    <t>DESCONGES OCULAR SIM</t>
-  </si>
-  <si>
-    <t>GELADEIRA 1</t>
-  </si>
-  <si>
-    <t>TV 4K ACIMA DE 69"</t>
+    <t>SPLIT 8501 À 10000</t>
+  </si>
+  <si>
+    <t>PROTETOR SOLAR</t>
   </si>
   <si>
     <t>TV LED DE 21" À 24"</t>
   </si>
   <si>
-    <t>PORTÁTIL ANTENAS 2</t>
-  </si>
-  <si>
-    <t>MED PRES/GLIC/OUTROS</t>
-  </si>
-  <si>
-    <t>MASSAGEADOR</t>
-  </si>
-  <si>
-    <t>SERV INSTAL ELECTROL</t>
+    <t>CAÇAROLA</t>
+  </si>
+  <si>
+    <t>FERVEDOR/LEITEIRA</t>
+  </si>
+  <si>
+    <t>RELÓGIO DE PAREDE</t>
   </si>
   <si>
     <t>ANTIÁCIDO REF</t>
   </si>
   <si>
-    <t>SPLIT 8501 À 10000</t>
-  </si>
-  <si>
-    <t>BEBEDOURO DE MESA</t>
-  </si>
-  <si>
-    <t>MUSICAL</t>
-  </si>
-  <si>
-    <t>MOTOBOMBA</t>
-  </si>
-  <si>
-    <t>SANDUICHEIRA INDUSTR</t>
-  </si>
-  <si>
-    <t>FRALDA RN</t>
-  </si>
-  <si>
-    <t>CREME DE TRATAMENTO</t>
-  </si>
-  <si>
-    <t>LAVA-LOUÇAS</t>
-  </si>
-  <si>
-    <t>RECEPTOR ANTENA</t>
-  </si>
-  <si>
-    <t>CÂMARA DE AR</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS X-BOX</t>
-  </si>
-  <si>
-    <t>VENTILADOR DE MESA</t>
-  </si>
-  <si>
-    <t>MÍDIAS X-BOX</t>
-  </si>
-  <si>
-    <t>PÓ DESCOLORANTE</t>
-  </si>
-  <si>
-    <t>BABA ELETRÔNICA</t>
-  </si>
-  <si>
-    <t>SPLIT ATÉ 8500 BTUS</t>
-  </si>
-  <si>
-    <t>TV LED DE 40" À 43"</t>
-  </si>
-  <si>
-    <t>LÁPIS, DELINEADOR</t>
-  </si>
-  <si>
-    <t>ESCADAS</t>
-  </si>
-  <si>
-    <t>SCANNER</t>
-  </si>
-  <si>
-    <t>FERVEDOR/LEITEIRA</t>
-  </si>
-  <si>
-    <t>REM D CALOS VERU SIM</t>
-  </si>
-  <si>
-    <t>RECIBOS</t>
-  </si>
-  <si>
-    <t>CADEIRA DE BAR</t>
-  </si>
-  <si>
-    <t>TV 4K DE 60" À 69"</t>
-  </si>
-  <si>
-    <t>TELEVISOR LCD 1</t>
-  </si>
-  <si>
-    <t>SECADORA 1</t>
-  </si>
-  <si>
-    <t>FREEZERS 1</t>
-  </si>
-  <si>
-    <t>SOM 2</t>
-  </si>
-  <si>
-    <t>COMPUTADORES</t>
-  </si>
-  <si>
-    <t>TOALHA DE BANHO</t>
-  </si>
-  <si>
-    <t>MALA RÍGIDA</t>
-  </si>
-  <si>
-    <t>JANELA ATÉ 8500 BTUS</t>
-  </si>
-  <si>
-    <t>HD EXTERNO</t>
-  </si>
-  <si>
-    <t>ADORNO</t>
-  </si>
-  <si>
-    <t>MESA AVULSA</t>
-  </si>
-  <si>
-    <t>LAXANTE REF</t>
-  </si>
-  <si>
-    <t>AUX TRAT OBESIDA GEN</t>
-  </si>
-  <si>
-    <t>FRALDA ADULTO</t>
-  </si>
-  <si>
-    <t>LAV AUTO À PARTIR 12</t>
-  </si>
-  <si>
-    <t>CENTRÍFUGA L BRANCA</t>
-  </si>
-  <si>
-    <t>COBRELEITO/COLCHA</t>
-  </si>
-  <si>
-    <t>PORT FÇ VC MESMO 2</t>
-  </si>
-  <si>
-    <t>COLCHÃO P/ BERÇO</t>
-  </si>
-  <si>
-    <t>PROCESSADOR ALIMENTO</t>
-  </si>
-  <si>
-    <t>BICA D'ÁGUA</t>
-  </si>
-  <si>
-    <t>ANTIPSICÓTICO GEN</t>
-  </si>
-  <si>
-    <t>ANTIBACTERIANO SIM</t>
-  </si>
-  <si>
-    <t>PANELA DE PRESSÃO</t>
-  </si>
-  <si>
-    <t>SOFTWARES</t>
-  </si>
-  <si>
-    <t>CADEIRÃO</t>
-  </si>
-  <si>
-    <t>CINZEIRO</t>
-  </si>
-  <si>
-    <t>HEPATOPROTETOR REF</t>
-  </si>
-  <si>
-    <t>CAÇAROLA</t>
-  </si>
-  <si>
-    <t>PEN DRIVE</t>
-  </si>
-  <si>
-    <t>REG D FUNÇÃO INT REF</t>
-  </si>
-  <si>
-    <t>CREME P/PENTEAR</t>
-  </si>
-  <si>
-    <t>ANTIEMÉTICO REF</t>
-  </si>
-  <si>
-    <t>JOGOS DIVERSOS LAZER</t>
-  </si>
-  <si>
-    <t>MOCHILA ESCOLAR</t>
-  </si>
-  <si>
-    <t>PAN ELÉT/PIPOQ/COZED</t>
-  </si>
-  <si>
-    <t>PROTETOR SOLAR</t>
-  </si>
-  <si>
-    <t>CERA DEPILATÓRIA</t>
-  </si>
-  <si>
-    <t>POLTRONA</t>
-  </si>
-  <si>
-    <t>FERRO À VAPOR</t>
-  </si>
-  <si>
-    <t>COLCH ORTOP/SEM SOLT</t>
-  </si>
-  <si>
-    <t>CONDICIONADOR DERMO</t>
-  </si>
-  <si>
-    <t>ARM AÉREO COZ AÇO</t>
-  </si>
-  <si>
-    <t>ANTIANGINOSO REF</t>
-  </si>
-  <si>
-    <t>COMPLEMENTO MÓVEIS</t>
-  </si>
-  <si>
-    <t>SIDE BY SIDE</t>
-  </si>
-  <si>
-    <t>COIFA 2</t>
-  </si>
-  <si>
-    <t>ROUP CORRER/BASC</t>
-  </si>
-  <si>
-    <t>LVR INF/JUVEN/QUADRI</t>
-  </si>
-  <si>
-    <t>QUADROS E ESPELHOS</t>
-  </si>
-  <si>
-    <t>BUFFET</t>
-  </si>
-  <si>
-    <t>ANTIRREUMÁTICO GEN</t>
-  </si>
-  <si>
-    <t>RECARGA VIRTUAL</t>
-  </si>
-  <si>
-    <t>FURADEIRA/PARAFUSADE</t>
-  </si>
-  <si>
-    <t>BOMBA D'ÁGUA</t>
-  </si>
-  <si>
-    <t>BRONCODILATADOR REF</t>
-  </si>
-  <si>
-    <t>CONSOLES</t>
-  </si>
-  <si>
-    <t>SERRA MÁRMORE</t>
-  </si>
-  <si>
-    <t>SOFÁ DE CANTO</t>
-  </si>
-  <si>
-    <t>PORTÁTIL ELETRO 2</t>
-  </si>
-  <si>
-    <t>SECADORA 2</t>
-  </si>
-  <si>
-    <t>PORTA-RETRATO</t>
-  </si>
-  <si>
-    <t>RELÓGIO DE PAREDE</t>
+    <t>CABOS</t>
+  </si>
+  <si>
+    <t>DEPURADOR DE AR</t>
+  </si>
+  <si>
+    <t>ADOÇANTE</t>
+  </si>
+  <si>
+    <t>ANTIEMÉTICO GEN</t>
+  </si>
+  <si>
+    <t>CALMANTE SIM</t>
+  </si>
+  <si>
+    <t>ARMÁRIO ESCRITÓRIO</t>
+  </si>
+  <si>
+    <t>ACESS P/HIGIENE MASC</t>
+  </si>
+  <si>
+    <t>ANTIULCEROSO REF</t>
+  </si>
+  <si>
+    <t>CERUMINOLÍTICO REF</t>
+  </si>
+  <si>
+    <t>ACESS. P/ BICICLETA</t>
+  </si>
+  <si>
+    <t>MULTIFUNÇÃO</t>
+  </si>
+  <si>
+    <t>MICROONDAS 1</t>
+  </si>
+  <si>
+    <t>FILTRO UD</t>
+  </si>
+  <si>
+    <t>ESTÁTUAS</t>
+  </si>
+  <si>
+    <t>FOGÃO DE EMBUTIR</t>
+  </si>
+  <si>
+    <t>ANTICONCEPCIONAL REF</t>
+  </si>
+  <si>
+    <t>CJ JARDIM ALUMÍNIO</t>
+  </si>
+  <si>
+    <t>TINTURA</t>
+  </si>
+  <si>
+    <t>ANSIOLÍTICOS GEN</t>
+  </si>
+  <si>
+    <t>LENÇOL</t>
   </si>
   <si>
     <t>ASPIRADOR</t>
   </si>
   <si>
+    <t>BALANÇA ELETRÔNICA</t>
+  </si>
+  <si>
+    <t>ANTISSÉPTICO REF</t>
+  </si>
+  <si>
+    <t>ANTICONCEPCIONAL SIM</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>CD PLAYER P/AUTO</t>
+  </si>
+  <si>
+    <t>BOMBONIÉRE</t>
+  </si>
+  <si>
+    <t>ANTIALÉRGICO SIM</t>
+  </si>
+  <si>
+    <t>ANTI-INF ESTEROI GEN</t>
+  </si>
+  <si>
+    <t>INSTRUM HARMÔNICO</t>
+  </si>
+  <si>
+    <t>REPARADOR DE PONTAS</t>
+  </si>
+  <si>
+    <t>COIFA 1</t>
+  </si>
+  <si>
+    <t>CADEIRA DE SALA</t>
+  </si>
+  <si>
+    <t>ANTI-HEMORRÁGICO REF</t>
+  </si>
+  <si>
+    <t>LINHA MARROM</t>
+  </si>
+  <si>
+    <t>SORVETEIRA</t>
+  </si>
+  <si>
+    <t>ANTI-INF ESTEROI SIM</t>
+  </si>
+  <si>
+    <t>MÓVEIS 1</t>
+  </si>
+  <si>
+    <t>ESFOLIANT ELÉT ACESS</t>
+  </si>
+  <si>
+    <t>BRINC E FAZ DE CONTA</t>
+  </si>
+  <si>
+    <t>BOTIJA GÁS/CJ LIGAÇÃ</t>
+  </si>
+  <si>
+    <t>ANESTÉSICO LOCAL REF</t>
+  </si>
+  <si>
+    <t>CORTINA DE AR/CLIMAT</t>
+  </si>
+  <si>
+    <t>ESTANTE</t>
+  </si>
+  <si>
+    <t>JARRAS</t>
+  </si>
+  <si>
+    <t>GRELHAS/ESPETOS/ACES</t>
+  </si>
+  <si>
+    <t>DESPIGMENTANTE GEN</t>
+  </si>
+  <si>
+    <t>PORTÁTIL FÇ VC MESMO</t>
+  </si>
+  <si>
+    <t>FOGÃO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>SERRA TICO-TICO</t>
+  </si>
+  <si>
+    <t>FRIGIDEIRA</t>
+  </si>
+  <si>
+    <t>BEBÊ CONFORTO</t>
+  </si>
+  <si>
+    <t>ANTIPROTOZOÁRIO GEN</t>
+  </si>
+  <si>
+    <t>AR COND SPLIT 1</t>
+  </si>
+  <si>
+    <t>CHIP</t>
+  </si>
+  <si>
+    <t>CAMPING</t>
+  </si>
+  <si>
+    <t>CONJ TAÇAS/COPOS</t>
+  </si>
+  <si>
+    <t>CICATRIZANTE SIM</t>
+  </si>
+  <si>
+    <t>HORMÔNIO GEN</t>
+  </si>
+  <si>
+    <t>ANTI-HEMORRÁGICO GEN</t>
+  </si>
+  <si>
+    <t>REIDRATAÇÃO ORAL SIM</t>
+  </si>
+  <si>
+    <t>FURADEIRA</t>
+  </si>
+  <si>
+    <t>BATERIA P/ AUTOMÓVEL</t>
+  </si>
+  <si>
+    <t>MÁQ CORTAR CABELO</t>
+  </si>
+  <si>
+    <t>EMBALAGEM P/PRESENTE</t>
+  </si>
+  <si>
+    <t>ACESS CUID PESSOAIS</t>
+  </si>
+  <si>
+    <t>CAMA BOX/AMER SOLT</t>
+  </si>
+  <si>
+    <t>INSTRUM DE SOPRO</t>
+  </si>
+  <si>
+    <t>PORTA-JÓIA</t>
+  </si>
+  <si>
+    <t>CONJ PLAYSET/MENINAS</t>
+  </si>
+  <si>
+    <t>ORG CASA/PRAT E SUP</t>
+  </si>
+  <si>
+    <t>TV LED ACIMA DE 65"</t>
+  </si>
+  <si>
+    <t>TRAT D DISF ERET GEN</t>
+  </si>
+  <si>
+    <t>ROUP INFANTIL ATÉ 3P</t>
+  </si>
+  <si>
+    <t>ANTINEURÍTICO REF</t>
+  </si>
+  <si>
+    <t>LÂMINA DE BARBEAR</t>
+  </si>
+  <si>
+    <t>VIDEO KARAOKÊ 2</t>
+  </si>
+  <si>
+    <t>ESTANTE ESCRITÓRIO</t>
+  </si>
+  <si>
+    <t>HORMÔNIO SIM</t>
+  </si>
+  <si>
+    <t>BATERIA P/ MOTO</t>
+  </si>
+  <si>
+    <t>SMART MULTISIM PRÉ</t>
+  </si>
+  <si>
+    <t>DIURÉTICO SIM</t>
+  </si>
+  <si>
+    <t>REM D CALOS VERU REF</t>
+  </si>
+  <si>
+    <t>COFRE</t>
+  </si>
+  <si>
+    <t>ANTIFÚNGICO SIM</t>
+  </si>
+  <si>
     <t>CHAPA</t>
   </si>
   <si>
+    <t>CALDEIRÃO</t>
+  </si>
+  <si>
+    <t>TRICICLO</t>
+  </si>
+  <si>
+    <t>BEBEDOURO 2</t>
+  </si>
+  <si>
+    <t>DEPURADOR 2</t>
+  </si>
+  <si>
+    <t>PROTETOR CORPORAL</t>
+  </si>
+  <si>
+    <t>HIPOGLICEMI ORAL REF</t>
+  </si>
+  <si>
+    <t>DESODORANTE ROLL ON</t>
+  </si>
+  <si>
+    <t>ACESSÓRIO ESCRITÓRIO</t>
+  </si>
+  <si>
     <t>OUTROS ACESSÓRIOS</t>
   </si>
   <si>
-    <t>SORVETEIRA</t>
+    <t>ANTI-INF Ñ ESTER SIM</t>
+  </si>
+  <si>
+    <t>ENT C/ HORA AGENDADA</t>
+  </si>
+  <si>
+    <t>INSTRUM DE CORDAS</t>
+  </si>
+  <si>
+    <t>PRODUTOS DIVERSOS</t>
+  </si>
+  <si>
+    <t>DESODORANTE DERMO</t>
+  </si>
+  <si>
+    <t>QUEBRA-CABEÇA</t>
+  </si>
+  <si>
+    <t>BEBEDOURO DE COLUNA</t>
+  </si>
+  <si>
+    <t>CADEIRA DE BALANÇO</t>
+  </si>
+  <si>
+    <t>GARRAFAS</t>
+  </si>
+  <si>
+    <t>ACESS P/MÃOS E PÉS</t>
+  </si>
+  <si>
+    <t>VIDEO CASSETE/DVD 1</t>
+  </si>
+  <si>
+    <t>COLCH MOLA SOLTEIRO</t>
+  </si>
+  <si>
+    <t>BLOCOS DE MONTAR</t>
+  </si>
+  <si>
+    <t>TRAT D HIP PROST GEN</t>
+  </si>
+  <si>
+    <t>SORVETE E PICOLÉ</t>
+  </si>
+  <si>
+    <t>ANTIALÉRGICO REF</t>
+  </si>
+  <si>
+    <t>BICAMA</t>
+  </si>
+  <si>
+    <t>CAIXAS E CESTOS</t>
+  </si>
+  <si>
+    <t>ANTIÁCIDO SIM</t>
+  </si>
+  <si>
+    <t>VIDEO GAMES 2</t>
+  </si>
+  <si>
+    <t>FREEZER VERTICAL</t>
+  </si>
+  <si>
+    <t>FRIGOBAR</t>
+  </si>
+  <si>
+    <t>GELADEIRA 2</t>
   </si>
   <si>
     <t>PISTAS</t>
   </si>
   <si>
-    <t>BEBEDOURO DE COLUNA</t>
-  </si>
-  <si>
-    <t>BATERIA P/ MOTO</t>
-  </si>
-  <si>
-    <t>FILTRO UD</t>
-  </si>
-  <si>
-    <t>DIURÉTICO SIM</t>
+    <t>ACESS CAMA/MESA/BANH</t>
+  </si>
+  <si>
+    <t>CEREAL</t>
+  </si>
+  <si>
+    <t>COMPL MÓV INFANTIS</t>
+  </si>
+  <si>
+    <t>CANDELABRO/LANTERNA</t>
+  </si>
+  <si>
+    <t>BONECAS</t>
+  </si>
+  <si>
+    <t>SERTANEJO</t>
   </si>
   <si>
     <t>ANTIARRÍTMICO REF</t>
   </si>
   <si>
-    <t>PORTÁTIL FÇ VC MESMO</t>
-  </si>
-  <si>
-    <t>BALANÇA ELETRÔNICA</t>
-  </si>
-  <si>
-    <t>FREEZER VERTICAL</t>
-  </si>
-  <si>
-    <t>LINHA MARROM</t>
-  </si>
-  <si>
-    <t>FRIGOBAR</t>
-  </si>
-  <si>
-    <t>CJ JARDIM ALUMÍNIO</t>
-  </si>
-  <si>
-    <t>ANTIULCEROSO REF</t>
-  </si>
-  <si>
-    <t>FOGÃO DE EMBUTIR</t>
-  </si>
-  <si>
-    <t>JARRAS</t>
-  </si>
-  <si>
-    <t>EMBALAGEM P/PRESENTE</t>
-  </si>
-  <si>
-    <t>ANTICONCEPCIONAL SIM</t>
-  </si>
-  <si>
-    <t>TRICICLO</t>
-  </si>
-  <si>
-    <t>BRINC E FAZ DE CONTA</t>
-  </si>
-  <si>
-    <t>ANTI-HEMORRÁGICO GEN</t>
-  </si>
-  <si>
-    <t>COFRE</t>
-  </si>
-  <si>
-    <t>CORTINA DE AR/CLIMAT</t>
-  </si>
-  <si>
-    <t>REM D CALOS VERU REF</t>
-  </si>
-  <si>
-    <t>CONJ TAÇAS/COPOS</t>
+    <t>RÁDIO PORTÁTIL</t>
+  </si>
+  <si>
+    <t>UTENS. DE MESA</t>
+  </si>
+  <si>
+    <t>COPA 04 PEÇAS</t>
+  </si>
+  <si>
+    <t>SMARTPHONE LIVRE</t>
+  </si>
+  <si>
+    <t>DESCONGES OCULAR REF</t>
+  </si>
+  <si>
+    <t>ALGODÃO</t>
+  </si>
+  <si>
+    <t>CARRINHO DE BEBÊ</t>
+  </si>
+  <si>
+    <t>ANTIFLATULENTO SIM</t>
   </si>
   <si>
     <t>SABONETE/GEL P/BANHO</t>
   </si>
   <si>
-    <t>TRAT D DISF ERET GEN</t>
-  </si>
-  <si>
-    <t>UTENS. DE MESA</t>
-  </si>
-  <si>
-    <t>COMPL MÓV INFANTIS</t>
-  </si>
-  <si>
-    <t>CARRINHO DE BEBÊ</t>
-  </si>
-  <si>
-    <t>DESPIGMENTANTE GEN</t>
-  </si>
-  <si>
-    <t>MULTIFUNÇÃO</t>
-  </si>
-  <si>
-    <t>ACESS CUID PESSOAIS</t>
-  </si>
-  <si>
-    <t>GARRAFAS</t>
-  </si>
-  <si>
-    <t>ANTIPROTOZOÁRIO GEN</t>
-  </si>
-  <si>
-    <t>INSTRUM DE SOPRO</t>
-  </si>
-  <si>
-    <t>ANTI-HEMORRÁGICO REF</t>
-  </si>
-  <si>
-    <t>DEPURADOR 2</t>
-  </si>
-  <si>
-    <t>CAMPING</t>
-  </si>
-  <si>
-    <t>BEBÊ CONFORTO</t>
-  </si>
-  <si>
-    <t>SMART MULTISIM PRÉ</t>
-  </si>
-  <si>
-    <t>ESTANTE</t>
-  </si>
-  <si>
-    <t>ESTANTE ESCRITÓRIO</t>
-  </si>
-  <si>
-    <t>INSTRUM HARMÔNICO</t>
-  </si>
-  <si>
-    <t>CONJ PLAYSET/MENINAS</t>
-  </si>
-  <si>
-    <t>GELADEIRA 2</t>
-  </si>
-  <si>
-    <t>ACESS CAMA/MESA/BANH</t>
-  </si>
-  <si>
-    <t>BICAMA</t>
-  </si>
-  <si>
-    <t>ACESS. P/ BICICLETA</t>
-  </si>
-  <si>
-    <t>LÂMINA DE BARBEAR</t>
-  </si>
-  <si>
-    <t>FRIGIDEIRA</t>
-  </si>
-  <si>
-    <t>SMARTPHONE LIVRE</t>
-  </si>
-  <si>
-    <t>AR COND SPLIT 1</t>
-  </si>
-  <si>
-    <t>ROUP INFANTIL ATÉ 3P</t>
-  </si>
-  <si>
-    <t>SERRA TICO-TICO</t>
-  </si>
-  <si>
-    <t>ANTIALÉRGICO SIM</t>
-  </si>
-  <si>
-    <t>CICATRIZANTE SIM</t>
-  </si>
-  <si>
-    <t>ANTI-INF ESTEROI GEN</t>
-  </si>
-  <si>
-    <t>FOGÃO INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>MICROONDAS 1</t>
-  </si>
-  <si>
-    <t>HIPOGLICEMI ORAL REF</t>
-  </si>
-  <si>
-    <t>CD PLAYER P/AUTO</t>
-  </si>
-  <si>
-    <t>CEREAL</t>
-  </si>
-  <si>
-    <t>DESODORANTE DERMO</t>
-  </si>
-  <si>
-    <t>ESFOLIANT ELÉT ACESS</t>
-  </si>
-  <si>
-    <t>CANDELABRO/LANTERNA</t>
-  </si>
-  <si>
-    <t>CADEIRA DE SALA</t>
-  </si>
-  <si>
-    <t>TINTURA</t>
-  </si>
-  <si>
-    <t>ADOÇANTE</t>
-  </si>
-  <si>
-    <t>PRODUTOS DIVERSOS</t>
-  </si>
-  <si>
-    <t>ANTICONCEPCIONAL REF</t>
-  </si>
-  <si>
-    <t>ANTIFÚNGICO SIM</t>
-  </si>
-  <si>
-    <t>ANSIOLÍTICOS GEN</t>
-  </si>
-  <si>
-    <t>BONECAS</t>
-  </si>
-  <si>
-    <t>CHIP</t>
-  </si>
-  <si>
-    <t>DESCONGES OCULAR REF</t>
-  </si>
-  <si>
-    <t>MÓVEIS 1</t>
-  </si>
-  <si>
-    <t>GRELHAS/ESPETOS/ACES</t>
-  </si>
-  <si>
-    <t>ANTIALÉRGICO REF</t>
-  </si>
-  <si>
-    <t>ANTIÁCIDO SIM</t>
-  </si>
-  <si>
-    <t>CABOS</t>
-  </si>
-  <si>
-    <t>ANTI-INF ESTEROI SIM</t>
-  </si>
-  <si>
-    <t>MÁQ CORTAR CABELO</t>
-  </si>
-  <si>
-    <t>ALGODÃO</t>
-  </si>
-  <si>
-    <t>COLCH MOLA SOLTEIRO</t>
-  </si>
-  <si>
-    <t>ORG CASA/PRAT E SUP</t>
-  </si>
-  <si>
-    <t>CERUMINOLÍTICO REF</t>
-  </si>
-  <si>
-    <t>ACESS P/MÃOS E PÉS</t>
-  </si>
-  <si>
-    <t>INSTRUM DE CORDAS</t>
-  </si>
-  <si>
-    <t>VIDEO KARAOKÊ 2</t>
-  </si>
-  <si>
-    <t>BOTIJA GÁS/CJ LIGAÇÃ</t>
-  </si>
-  <si>
-    <t>DEPURADOR DE AR</t>
-  </si>
-  <si>
-    <t>ANTI-INF Ñ ESTER SIM</t>
-  </si>
-  <si>
-    <t>CAIXAS E CESTOS</t>
-  </si>
-  <si>
-    <t>ANESTÉSICO LOCAL REF</t>
-  </si>
-  <si>
-    <t>ESTÁTUAS</t>
-  </si>
-  <si>
-    <t>VIDEO CASSETE/DVD 1</t>
-  </si>
-  <si>
-    <t>REPARADOR DE PONTAS</t>
-  </si>
-  <si>
-    <t>CADEIRA DE BALANÇO</t>
-  </si>
-  <si>
-    <t>COIFA 1</t>
-  </si>
-  <si>
-    <t>LENÇOL</t>
-  </si>
-  <si>
-    <t>TV LED ACIMA DE 65"</t>
-  </si>
-  <si>
-    <t>HORMÔNIO GEN</t>
-  </si>
-  <si>
-    <t>CALMANTE SIM</t>
-  </si>
-  <si>
-    <t>ACESS P/HIGIENE MASC</t>
-  </si>
-  <si>
-    <t>DESODORANTE ROLL ON</t>
-  </si>
-  <si>
-    <t>PROTETOR CORPORAL</t>
-  </si>
-  <si>
-    <t>ARMÁRIO ESCRITÓRIO</t>
-  </si>
-  <si>
-    <t>BLOCOS DE MONTAR</t>
-  </si>
-  <si>
-    <t>TRAT D HIP PROST GEN</t>
-  </si>
-  <si>
-    <t>FURADEIRA</t>
-  </si>
-  <si>
-    <t>BEBEDOURO 2</t>
-  </si>
-  <si>
-    <t>ANTISSÉPTICO REF</t>
-  </si>
-  <si>
-    <t>SERTANEJO</t>
-  </si>
-  <si>
-    <t>ANTIEMÉTICO GEN</t>
-  </si>
-  <si>
-    <t>QUEBRA-CABEÇA</t>
-  </si>
-  <si>
-    <t>COPA 04 PEÇAS</t>
-  </si>
-  <si>
-    <t>CAMA BOX/AMER SOLT</t>
-  </si>
-  <si>
-    <t>INFORMÁTICA</t>
-  </si>
-  <si>
-    <t>HORMÔNIO SIM</t>
-  </si>
-  <si>
-    <t>SORVETE E PICOLÉ</t>
-  </si>
-  <si>
-    <t>BATERIA P/ AUTOMÓVEL</t>
-  </si>
-  <si>
-    <t>REIDRATAÇÃO ORAL SIM</t>
-  </si>
-  <si>
-    <t>VIDEO GAMES 2</t>
-  </si>
-  <si>
-    <t>BOMBONIÉRE</t>
-  </si>
-  <si>
-    <t>ANTIFLATULENTO SIM</t>
-  </si>
-  <si>
-    <t>ANTINEURÍTICO REF</t>
-  </si>
-  <si>
-    <t>RÁDIO PORTÁTIL</t>
-  </si>
-  <si>
-    <t>CALDEIRÃO</t>
-  </si>
-  <si>
-    <t>ENT C/ HORA AGENDADA</t>
-  </si>
-  <si>
-    <t>ACESSÓRIO ESCRITÓRIO</t>
-  </si>
-  <si>
-    <t>PORTA-JÓIA</t>
+    <t>FÓRMULAS INFANTIS</t>
+  </si>
+  <si>
+    <t>CARRINHOS &amp; CIA CONT</t>
+  </si>
+  <si>
+    <t>DEPURADOR 1</t>
+  </si>
+  <si>
+    <t>ACESS ELETROPORTÁTIL</t>
+  </si>
+  <si>
+    <t>ROUP BASC 5/12 PTS</t>
+  </si>
+  <si>
+    <t>MARTELETE</t>
+  </si>
+  <si>
+    <t>DESCONGEST NASAL SIM</t>
+  </si>
+  <si>
+    <t>CHURRASQUEIRA</t>
+  </si>
+  <si>
+    <t>CANIVETE</t>
+  </si>
+  <si>
+    <t>CHÁ</t>
+  </si>
+  <si>
+    <t>ANTICONVULSIVANT REF</t>
+  </si>
+  <si>
+    <t>LIMPEZA FACIAL DERMO</t>
+  </si>
+  <si>
+    <t>TRAT D DISF ERET REF</t>
+  </si>
+  <si>
+    <t>REFRIGERANTE</t>
+  </si>
+  <si>
+    <t>VAPORIZADOR</t>
+  </si>
+  <si>
+    <t>ANTISSÉPTICO SIM</t>
+  </si>
+  <si>
+    <t>TRAT D GRIP RESF REF</t>
+  </si>
+  <si>
+    <t>LAV AUTO ATÉ 8KG</t>
+  </si>
+  <si>
+    <t>EXPECTOR E MUCOL GEN</t>
+  </si>
+  <si>
+    <t>CARTUCHO IMPRESSORA</t>
+  </si>
+  <si>
+    <t>TAPETE P/AUTO</t>
+  </si>
+  <si>
+    <t>DIURÉTICO REF</t>
+  </si>
+  <si>
+    <t>ANTIPROTOZOÁRIO SIM</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>DOCES</t>
+  </si>
+  <si>
+    <t>FOGÕES 1</t>
+  </si>
+  <si>
+    <t>REL FEM DIGITAL</t>
+  </si>
+  <si>
+    <t>ARRANJO FLORAL</t>
+  </si>
+  <si>
+    <t>ANTIDEPRESSIVO REF</t>
+  </si>
+  <si>
+    <t>LIMPA FIXA DENTADURA</t>
+  </si>
+  <si>
+    <t>ANTITUSSÍGENO REF</t>
+  </si>
+  <si>
+    <t>GERADOR</t>
+  </si>
+  <si>
+    <t>ANTIGOTOSO SIM</t>
+  </si>
+  <si>
+    <t>ANTIHELMÍNTICO REF</t>
+  </si>
+  <si>
+    <t>RELÓGIO MASC ANALÓG</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS DE PRIMEI</t>
+  </si>
+  <si>
+    <t>TRAT D MENOPAUSA REF</t>
+  </si>
+  <si>
+    <t>CONJ DE SOBREMESA</t>
+  </si>
+  <si>
+    <t>EXAUSTOR VENTILAÇÃO</t>
+  </si>
+  <si>
+    <t>ESTABILIZ VOLTAGEM</t>
+  </si>
+  <si>
+    <t>NICHO DE COZINHA*</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS</t>
+  </si>
+  <si>
+    <t>SOFÁ-CAMA</t>
+  </si>
+  <si>
+    <t>TELEF CONVENC FIXO</t>
+  </si>
+  <si>
+    <t>MEDIDOR DE PRESSÃO</t>
+  </si>
+  <si>
+    <t>ANTIPROTOZOÁRIO REF</t>
+  </si>
+  <si>
+    <t>BOLSA TÉRMICA/NECESS</t>
+  </si>
+  <si>
+    <t>ANTIGLAUCOMATOSO GEN</t>
+  </si>
+  <si>
+    <t>COIFA DE ILHA</t>
+  </si>
+  <si>
+    <t>MICROONDAS 2</t>
+  </si>
+  <si>
+    <t>SINUCA</t>
+  </si>
+  <si>
+    <t>RELÓGIO PULSO INF-JU</t>
+  </si>
+  <si>
+    <t>COMPL COZ DE AÇO</t>
+  </si>
+  <si>
+    <t>RELIGIOSO</t>
+  </si>
+  <si>
+    <t>ANTIFADIGA SIM</t>
+  </si>
+  <si>
+    <t>FAQUEIRO</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS VIAGEM</t>
+  </si>
+  <si>
+    <t>PANELEIRO DE AÇO</t>
+  </si>
+  <si>
+    <t>MESA P/ TELEFONE</t>
+  </si>
+  <si>
+    <t>POTES</t>
+  </si>
+  <si>
+    <t>BICICL ADULTO FEM</t>
+  </si>
+  <si>
+    <t>INSTRUM ELETRÔNICO</t>
+  </si>
+  <si>
+    <t>CHURRASQUEIRA A GÁS</t>
+  </si>
+  <si>
+    <t>CREME P/ASSADURA</t>
+  </si>
+  <si>
+    <t>IMPRESSORA/SCANNER</t>
+  </si>
+  <si>
+    <t>VITRINE/ADEGA</t>
+  </si>
+  <si>
+    <t>COMPL COZ DE MADEIRA</t>
+  </si>
+  <si>
+    <t>ANTIDEPRESSIVO GEN</t>
+  </si>
+  <si>
+    <t>ANTIVERTIGINOSO REF</t>
+  </si>
+  <si>
+    <t>BREGA&amp;POPULAR</t>
+  </si>
+  <si>
+    <t>CONJ DE PANELAS</t>
+  </si>
+  <si>
+    <t>FRALDA XG</t>
+  </si>
+  <si>
+    <t>DEMAQUILANTE</t>
+  </si>
+  <si>
+    <t>ANTIESTRIAS E FIRMAD</t>
+  </si>
+  <si>
+    <t>HIPNÓTICO-SEDATI REF</t>
+  </si>
+  <si>
+    <t>UTENSÍLIO DOMÉSTICO</t>
+  </si>
+  <si>
+    <t>ANTIAGREGAN PLAQ GEN</t>
+  </si>
+  <si>
+    <t>ANTIASMÁTICO SIM</t>
+  </si>
+  <si>
+    <t>VOLEIBOL</t>
+  </si>
+  <si>
+    <t>BALANÇA INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>VENTILADOR DE TETO</t>
+  </si>
+  <si>
+    <t>ANTI-HIPERTENSIV SIM</t>
+  </si>
+  <si>
+    <t>ANTIVARICOSO REF</t>
+  </si>
+  <si>
+    <t>CREME DE MASSAGEM</t>
+  </si>
+  <si>
+    <t>LAVADORA/SECADORA</t>
+  </si>
+  <si>
+    <t>ANTISSÉPTICO BUCAL</t>
+  </si>
+  <si>
+    <t>CREME DENTAL INF</t>
+  </si>
+  <si>
+    <t>COOKTOP ELÉTRICO</t>
+  </si>
+  <si>
+    <t>TELEVISOR LCD 2</t>
+  </si>
+  <si>
+    <t>PEÇA AVULSA - LOUÇA</t>
+  </si>
+  <si>
+    <t>BEBEDOURO 1</t>
+  </si>
+  <si>
+    <t>ANTIBACTERIANO REF</t>
+  </si>
+  <si>
+    <t>ANTIACNEICO REF</t>
+  </si>
+  <si>
+    <t>ANALGÉSICO SIM</t>
+  </si>
+  <si>
+    <t>VELA NATALINA</t>
+  </si>
+  <si>
+    <t>COLCH ORTOP/SEMI CAS</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS CINE FOTO</t>
+  </si>
+  <si>
+    <t>POP INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>LIXEIRA</t>
+  </si>
+  <si>
+    <t>ANTICONVULSIVANT GEN</t>
+  </si>
+  <si>
+    <t>TROCA GARANTIDA 1</t>
+  </si>
+  <si>
+    <t>ÁGUA TERMAL</t>
+  </si>
+  <si>
+    <t>CREME DENTAL</t>
+  </si>
+  <si>
+    <t>ANTI-HEMORRÁGICO SIM</t>
+  </si>
+  <si>
+    <t>VENTILADOR DE PAREDE</t>
+  </si>
+  <si>
+    <t>LAVADORA 2</t>
+  </si>
+  <si>
+    <t>MEIA DE COMPRESSÃO</t>
+  </si>
+  <si>
+    <t>ANTIENVELHECIMENTO</t>
+  </si>
+  <si>
+    <t>COMPL P/ ESCRITÓRIO</t>
+  </si>
+  <si>
+    <t>CAPACETES</t>
+  </si>
+  <si>
+    <t>ANTIFLATULENTO REF</t>
+  </si>
+  <si>
+    <t>GINÁSTICA/MUSCULAÇÃO</t>
+  </si>
+  <si>
+    <t>PÃO/TOR/PANET/BOLINH</t>
+  </si>
+  <si>
+    <t>FILTRO M CONSTRUÇÃO</t>
+  </si>
+  <si>
+    <t>INSTRUM DE PERCUSSÃO</t>
+  </si>
+  <si>
+    <t>GEL ANTISSÉPTICO</t>
+  </si>
+  <si>
+    <t>ANTIASMÁTICO REF</t>
+  </si>
+  <si>
+    <t>FIXADOR E SEC P/UNHA</t>
+  </si>
+  <si>
+    <t>ESMALTE</t>
+  </si>
+  <si>
+    <t>CHAPA/FRITADEIRA IND</t>
+  </si>
+  <si>
+    <t>ACESS DE MEDICINA</t>
+  </si>
+  <si>
+    <t>TABLET 2</t>
+  </si>
+  <si>
+    <t>VIDEO CASSETE/DVD 2</t>
+  </si>
+  <si>
+    <t>COMPUTADORES 1</t>
+  </si>
+  <si>
+    <t>CREME, GEL E ESPUMA</t>
+  </si>
+  <si>
+    <t>FERRO À VAPOR/SPRAY</t>
+  </si>
+  <si>
+    <t>REIDRATAÇÃO ORAL REF</t>
+  </si>
+  <si>
+    <t>HIDRATANTE FACIAL</t>
+  </si>
+  <si>
+    <t>FRUTEIRA</t>
+  </si>
+  <si>
+    <t>RELAXANTE MUSCUL GEN</t>
+  </si>
+  <si>
+    <t>LÂMP/INTERRUP/TOMADA</t>
+  </si>
+  <si>
+    <t>ANTILIPÊMICO REF</t>
+  </si>
+  <si>
+    <t>ASSENTO P/ AUTO</t>
+  </si>
+  <si>
+    <t>ROUP BASC ATÉ 4 PTS</t>
+  </si>
+  <si>
+    <t>ANTIGLAUCOMATOSO REF</t>
+  </si>
+  <si>
+    <t>DEPILADOR/APARADOR</t>
+  </si>
+  <si>
+    <t>VASODILATADOR GEN</t>
+  </si>
+  <si>
+    <t>TERMÔMETRO</t>
+  </si>
+  <si>
+    <t>POLITRIS/SOPRADOR</t>
+  </si>
+  <si>
+    <t>AMPLIFICAD/PRÉ-AMPLI</t>
+  </si>
+  <si>
+    <t>ANTIENXAQUECOSO REF</t>
   </si>
   <si>
     <t>TV OLED / QLED</t>
   </si>
   <si>
-    <t>FIXADOR E SEC P/UNHA</t>
-  </si>
-  <si>
-    <t>DIURÉTICO REF</t>
+    <t>CAMA INFANTIL</t>
+  </si>
+  <si>
+    <t>PROTEÍNAS</t>
+  </si>
+  <si>
+    <t>ANTIRRUGAS</t>
+  </si>
+  <si>
+    <t>AR COND SPLIT 2</t>
+  </si>
+  <si>
+    <t>TALCO P/ PÉS</t>
+  </si>
+  <si>
+    <t>MESA INFANTIL</t>
+  </si>
+  <si>
+    <t>ADAPTADOR</t>
+  </si>
+  <si>
+    <t>HIDRATANTE</t>
+  </si>
+  <si>
+    <t>PNEU P/ MOTO</t>
+  </si>
+  <si>
+    <t>ACESS INSTRUM MUSIC</t>
+  </si>
+  <si>
+    <t>ACESS P/HIGIENE BUC</t>
+  </si>
+  <si>
+    <t>LANTERNA</t>
+  </si>
+  <si>
+    <t>MINI-MALA/MALETA</t>
+  </si>
+  <si>
+    <t>VENTILADOR DE COLUNA</t>
   </si>
   <si>
     <t>CAMA DE CASAL</t>
   </si>
   <si>
-    <t>EXPECTOR E MUCOL GEN</t>
-  </si>
-  <si>
-    <t>LIMPEZA FACIAL DERMO</t>
-  </si>
-  <si>
-    <t>ANTIVARICOSO REF</t>
-  </si>
-  <si>
-    <t>BREGA&amp;POPULAR</t>
-  </si>
-  <si>
-    <t>ROUP BASC ATÉ 4 PTS</t>
-  </si>
-  <si>
-    <t>TERMÔMETRO</t>
-  </si>
-  <si>
-    <t>ANTIENXAQUECOSO REF</t>
-  </si>
-  <si>
-    <t>DEMAQUILANTE</t>
-  </si>
-  <si>
-    <t>ARRANJO FLORAL</t>
-  </si>
-  <si>
-    <t>ANTITUSSÍGENO REF</t>
-  </si>
-  <si>
-    <t>LANTERNA</t>
-  </si>
-  <si>
-    <t>ROUP BASC 5/12 PTS</t>
-  </si>
-  <si>
-    <t>ANTIAGREGAN PLAQ GEN</t>
-  </si>
-  <si>
-    <t>CREME P/ASSADURA</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS DE PRIMEI</t>
-  </si>
-  <si>
-    <t>MEIA DE COMPRESSÃO</t>
-  </si>
-  <si>
-    <t>AR COND SPLIT 2</t>
-  </si>
-  <si>
-    <t>CREME DENTAL INF</t>
-  </si>
-  <si>
-    <t>ANTIESTRIAS E FIRMAD</t>
-  </si>
-  <si>
-    <t>TELEF CONVENC FIXO</t>
-  </si>
-  <si>
-    <t>VENTILADOR DE TETO</t>
-  </si>
-  <si>
-    <t>FAQUEIRO</t>
-  </si>
-  <si>
-    <t>VAPORIZADOR</t>
-  </si>
-  <si>
-    <t>CANIVETE</t>
-  </si>
-  <si>
-    <t>ASSENTO P/ AUTO</t>
-  </si>
-  <si>
-    <t>TRAT D DISF ERET REF</t>
-  </si>
-  <si>
-    <t>FERRO À VAPOR/SPRAY</t>
-  </si>
-  <si>
-    <t>PÃO/TOR/PANET/BOLINH</t>
-  </si>
-  <si>
-    <t>LAVADORA/SECADORA</t>
-  </si>
-  <si>
-    <t>VOLEIBOL</t>
-  </si>
-  <si>
-    <t>COOKTOP ELÉTRICO</t>
-  </si>
-  <si>
-    <t>TAPETE P/AUTO</t>
-  </si>
-  <si>
-    <t>PEÇA AVULSA - LOUÇA</t>
-  </si>
-  <si>
-    <t>DEPURADOR 1</t>
-  </si>
-  <si>
-    <t>GINÁSTICA/MUSCULAÇÃO</t>
-  </si>
-  <si>
-    <t>LIXEIRA</t>
-  </si>
-  <si>
-    <t>CREME, GEL E ESPUMA</t>
-  </si>
-  <si>
-    <t>PROTEÍNAS</t>
-  </si>
-  <si>
-    <t>LAVADORA 2</t>
-  </si>
-  <si>
-    <t>BICICL ADULTO FEM</t>
-  </si>
-  <si>
-    <t>ACESS ELETROPORTÁTIL</t>
-  </si>
-  <si>
-    <t>COMPL P/ ESCRITÓRIO</t>
-  </si>
-  <si>
-    <t>CONJ DE SOBREMESA</t>
-  </si>
-  <si>
-    <t>POTES</t>
-  </si>
-  <si>
-    <t>MESA P/ TELEFONE</t>
-  </si>
-  <si>
-    <t>SINUCA</t>
-  </si>
-  <si>
-    <t>COIFA DE ILHA</t>
-  </si>
-  <si>
-    <t>TALCO P/ PÉS</t>
-  </si>
-  <si>
-    <t>ANTIDEPRESSIVO GEN</t>
-  </si>
-  <si>
-    <t>CREME DENTAL</t>
-  </si>
-  <si>
-    <t>RELIGIOSO</t>
-  </si>
-  <si>
-    <t>MESA INFANTIL</t>
-  </si>
-  <si>
-    <t>POP INTERNACIONAL</t>
-  </si>
-  <si>
-    <t>ÁGUA TERMAL</t>
-  </si>
-  <si>
-    <t>REFRIGERANTE</t>
-  </si>
-  <si>
-    <t>ANTICONVULSIVANT REF</t>
-  </si>
-  <si>
-    <t>PNEU P/ MOTO</t>
-  </si>
-  <si>
-    <t>ANTIASMÁTICO REF</t>
-  </si>
-  <si>
-    <t>REL FEM DIGITAL</t>
-  </si>
-  <si>
-    <t>VENTILADOR DE PAREDE</t>
-  </si>
-  <si>
-    <t>HOME</t>
-  </si>
-  <si>
-    <t>TRAT D MENOPAUSA REF</t>
-  </si>
-  <si>
-    <t>CREME DE MASSAGEM</t>
-  </si>
-  <si>
-    <t>ANTIENVELHECIMENTO</t>
-  </si>
-  <si>
-    <t>ANTIPROTOZOÁRIO SIM</t>
-  </si>
-  <si>
-    <t>ANALGÉSICO SIM</t>
-  </si>
-  <si>
-    <t>COMPUTADORES 1</t>
-  </si>
-  <si>
-    <t>MINI-MALA/MALETA</t>
-  </si>
-  <si>
-    <t>ESMALTE</t>
-  </si>
-  <si>
-    <t>ANTISSÉPTICO SIM</t>
-  </si>
-  <si>
-    <t>CHURRASQUEIRA A GÁS</t>
-  </si>
-  <si>
-    <t>CHAPA/FRITADEIRA IND</t>
-  </si>
-  <si>
-    <t>HIDRATANTE</t>
-  </si>
-  <si>
-    <t>ANTI-HEMORRÁGICO SIM</t>
-  </si>
-  <si>
-    <t>ACESS P/HIGIENE BUC</t>
-  </si>
-  <si>
-    <t>CAMA INFANTIL</t>
-  </si>
-  <si>
-    <t>ANTICONVULSIVANT GEN</t>
-  </si>
-  <si>
-    <t>COMPL COZ DE AÇO</t>
-  </si>
-  <si>
-    <t>SOFÁ-CAMA</t>
-  </si>
-  <si>
-    <t>AMPLIFICAD/PRÉ-AMPLI</t>
-  </si>
-  <si>
-    <t>ANTIBACTERIANO REF</t>
-  </si>
-  <si>
-    <t>ANTIPROTOZOÁRIO REF</t>
-  </si>
-  <si>
-    <t>COMPL COZ DE MADEIRA</t>
-  </si>
-  <si>
-    <t>VENTILADOR DE COLUNA</t>
-  </si>
-  <si>
-    <t>GERADOR</t>
-  </si>
-  <si>
-    <t>ANTIRRUGAS</t>
-  </si>
-  <si>
-    <t>ANTILIPÊMICO REF</t>
-  </si>
-  <si>
-    <t>ANTI-HIPERTENSIV SIM</t>
-  </si>
-  <si>
-    <t>EXAUSTOR VENTILAÇÃO</t>
-  </si>
-  <si>
-    <t>ANTIASMÁTICO SIM</t>
-  </si>
-  <si>
-    <t>NICHO DE COZINHA*</t>
-  </si>
-  <si>
-    <t>BALANÇA INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>CARRINHOS &amp; CIA CONT</t>
-  </si>
-  <si>
-    <t>ANTIFADIGA SIM</t>
-  </si>
-  <si>
-    <t>MARTELETE</t>
-  </si>
-  <si>
-    <t>TELEVISOR LCD 2</t>
-  </si>
-  <si>
-    <t>RELÓGIO MASC ANALÓG</t>
-  </si>
-  <si>
-    <t>ANTIGLAUCOMATOSO REF</t>
-  </si>
-  <si>
-    <t>BOLSA TÉRMICA/NECESS</t>
-  </si>
-  <si>
-    <t>DEPILADOR/APARADOR</t>
-  </si>
-  <si>
-    <t>ANTIACNEICO REF</t>
-  </si>
-  <si>
-    <t>REIDRATAÇÃO ORAL REF</t>
-  </si>
-  <si>
-    <t>COLCH ORTOP/SEMI CAS</t>
-  </si>
-  <si>
-    <t>TABLET 2</t>
-  </si>
-  <si>
-    <t>CARTUCHO IMPRESSORA</t>
-  </si>
-  <si>
-    <t>RELÓGIO PULSO INF-JU</t>
-  </si>
-  <si>
-    <t>FOGÕES 1</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS VIAGEM</t>
-  </si>
-  <si>
-    <t>INSTRUM ELETRÔNICO</t>
-  </si>
-  <si>
-    <t>MEDIDOR DE PRESSÃO</t>
-  </si>
-  <si>
-    <t>HIDRATANTE FACIAL</t>
-  </si>
-  <si>
-    <t>PANELEIRO DE AÇO</t>
-  </si>
-  <si>
-    <t>VITRINE/ADEGA</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS CINE FOTO</t>
-  </si>
-  <si>
-    <t>VELA NATALINA</t>
-  </si>
-  <si>
-    <t>LÂMP/INTERRUP/TOMADA</t>
-  </si>
-  <si>
-    <t>ANTIGOTOSO SIM</t>
-  </si>
-  <si>
-    <t>HIPNÓTICO-SEDATI REF</t>
-  </si>
-  <si>
-    <t>CAPACETES</t>
-  </si>
-  <si>
-    <t>CHURRASQUEIRA</t>
-  </si>
-  <si>
-    <t>ACESS DE MEDICINA</t>
-  </si>
-  <si>
-    <t>BEBEDOURO 1</t>
-  </si>
-  <si>
-    <t>DESCONGEST NASAL SIM</t>
-  </si>
-  <si>
-    <t>ANTIGLAUCOMATOSO GEN</t>
-  </si>
-  <si>
-    <t>FÓRMULAS INFANTIS</t>
-  </si>
-  <si>
-    <t>FRUTEIRA</t>
-  </si>
-  <si>
-    <t>MICROONDAS 2</t>
-  </si>
-  <si>
-    <t>ANTIDEPRESSIVO REF</t>
-  </si>
-  <si>
-    <t>GEL ANTISSÉPTICO</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS</t>
-  </si>
-  <si>
-    <t>FILTRO M CONSTRUÇÃO</t>
-  </si>
-  <si>
-    <t>VASODILATADOR GEN</t>
-  </si>
-  <si>
-    <t>ESTABILIZ VOLTAGEM</t>
-  </si>
-  <si>
-    <t>DOCES</t>
-  </si>
-  <si>
-    <t>POLITRIS/SOPRADOR</t>
-  </si>
-  <si>
-    <t>INSTRUM DE PERCUSSÃO</t>
-  </si>
-  <si>
-    <t>TROCA GARANTIDA 1</t>
-  </si>
-  <si>
-    <t>FRALDA XG</t>
-  </si>
-  <si>
-    <t>TRAT D GRIP RESF REF</t>
-  </si>
-  <si>
-    <t>IMPRESSORA/SCANNER</t>
-  </si>
-  <si>
-    <t>ANTISSÉPTICO BUCAL</t>
-  </si>
-  <si>
-    <t>VIDEO CASSETE/DVD 2</t>
-  </si>
-  <si>
-    <t>UTENSÍLIO DOMÉSTICO</t>
-  </si>
-  <si>
-    <t>ADAPTADOR</t>
-  </si>
-  <si>
-    <t>CONJ DE PANELAS</t>
-  </si>
-  <si>
-    <t>RELAXANTE MUSCUL GEN</t>
-  </si>
-  <si>
-    <t>CHÁ</t>
-  </si>
-  <si>
-    <t>ANTIFLATULENTO REF</t>
-  </si>
-  <si>
-    <t>ANTIHELMÍNTICO REF</t>
-  </si>
-  <si>
-    <t>ACESS INSTRUM MUSIC</t>
-  </si>
-  <si>
-    <t>LIMPA FIXA DENTADURA</t>
-  </si>
-  <si>
-    <t>ANTIVERTIGINOSO REF</t>
-  </si>
-  <si>
-    <t>LAV AUTO ATÉ 8KG</t>
+    <t>ANTIULCEROSO GEN</t>
+  </si>
+  <si>
+    <t>COIFA DE PAREDE</t>
+  </si>
+  <si>
+    <t>PORTÁTIL INSTRUM</t>
+  </si>
+  <si>
+    <t>SABONETE INFANTIL</t>
+  </si>
+  <si>
+    <t>P/JARD/AGRÍC MANUAL</t>
+  </si>
+  <si>
+    <t>REPELENTE</t>
+  </si>
+  <si>
+    <t>CADEIRA GIR S/BRAÇO</t>
+  </si>
+  <si>
+    <t>ANTIANÊMICO SIM</t>
+  </si>
+  <si>
+    <t>NOTEBOOK 2</t>
+  </si>
+  <si>
+    <t>PASTAS**</t>
+  </si>
+  <si>
+    <t>PURIFICADOR DE ÁGUA</t>
+  </si>
+  <si>
+    <t>VALOR EMERGENCIAL</t>
+  </si>
+  <si>
+    <t>ESTUFA INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>FREEZERS 2</t>
+  </si>
+  <si>
+    <t>ANTI-HEMORROIDA SIM</t>
+  </si>
+  <si>
+    <t>LÂMINA DEPILATÓRIA</t>
+  </si>
+  <si>
+    <t>DILATADOR NASAL</t>
+  </si>
+  <si>
+    <t>TRAT D INCON URI REF</t>
+  </si>
+  <si>
+    <t>BANDEJ/TRAVES/BAIXEL</t>
+  </si>
+  <si>
+    <t>CALMANTE REF</t>
+  </si>
+  <si>
+    <t>ASSADEIRAS/FÔRMAS</t>
+  </si>
+  <si>
+    <t>ÁLCOOL</t>
+  </si>
+  <si>
+    <t>REP DE FLORA INT SIM</t>
+  </si>
+  <si>
+    <t>TELEFONE FIXO 2</t>
+  </si>
+  <si>
+    <t>MODEM</t>
+  </si>
+  <si>
+    <t>PRESERVAT MASCULINO</t>
+  </si>
+  <si>
+    <t>HASTE FLEXÍVEL</t>
+  </si>
+  <si>
+    <t>ENERGÉTICO</t>
+  </si>
+  <si>
+    <t>NÁUTICO</t>
+  </si>
+  <si>
+    <t>ANTITABAGISMO REF</t>
+  </si>
+  <si>
+    <t>ÓLEO CORPORAL</t>
+  </si>
+  <si>
+    <t>SOFÁ 02 LUGARES</t>
+  </si>
+  <si>
+    <t>ROTEADORES E ADAPTAD</t>
+  </si>
+  <si>
+    <t>AUX TRAT OBESIDA REF</t>
+  </si>
+  <si>
+    <t>PROTETOR DIA ÍNTIMO</t>
+  </si>
+  <si>
+    <t>ACESSÓRIO P/ TABLET</t>
+  </si>
+  <si>
+    <t>COLÔNIA FEMININA</t>
+  </si>
+  <si>
+    <t>JOGOS DIVERSOS BRINQ</t>
+  </si>
+  <si>
+    <t>NOTEBOOK 1</t>
+  </si>
+  <si>
+    <t>ACESSÓRIO BRINQUEDO</t>
+  </si>
+  <si>
+    <t>BALCÃO COZ AÇO</t>
+  </si>
+  <si>
+    <t>BATEDEIRA</t>
+  </si>
+  <si>
+    <t>TELEFONE FIXO 1</t>
+  </si>
+  <si>
+    <t>AR COND JANELA 2</t>
+  </si>
+  <si>
+    <t>MESA DE CENTRO</t>
+  </si>
+  <si>
+    <t>ANTIBACTERIANO GENÉR</t>
+  </si>
+  <si>
+    <t>SALADEIRAS/SOPEIRAS</t>
+  </si>
+  <si>
+    <t>FRALDA M</t>
+  </si>
+  <si>
+    <t>ROUP COR 3/4 PTS</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM INFORM</t>
+  </si>
+  <si>
+    <t>CICATRIZANTE REF</t>
+  </si>
+  <si>
+    <t>COOKTOP À GÁS</t>
+  </si>
+  <si>
+    <t>VITAMINA SIM</t>
+  </si>
+  <si>
+    <t>LVR FICÇÃO/SUSPENSE</t>
+  </si>
+  <si>
+    <t>CALCULADORA</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS TELEFONIA</t>
+  </si>
+  <si>
+    <t>DESODORANTE CREME</t>
+  </si>
+  <si>
+    <t>ANTIENXAQUECOSO GEN</t>
+  </si>
+  <si>
+    <t>FORNO ELÉTRICO</t>
+  </si>
+  <si>
+    <t>ANTISSINAIS</t>
+  </si>
+  <si>
+    <t>SMARTPHONE PRÉ-PAGO</t>
+  </si>
+  <si>
+    <t>SOM 1</t>
+  </si>
+  <si>
+    <t>LENÇO UMEDECIDO INFA</t>
+  </si>
+  <si>
+    <t>SABONETE LÍQ ÍNTIMO</t>
+  </si>
+  <si>
+    <t>LANCETAS E TIRAS</t>
+  </si>
+  <si>
+    <t>ENFEITE NATALINO</t>
+  </si>
+  <si>
+    <t>RECHAUD/FONDUE</t>
+  </si>
+  <si>
+    <t>ESFOLIANTE</t>
+  </si>
+  <si>
+    <t>PUFF/ALMOFADÃO</t>
+  </si>
+  <si>
+    <t>LIXADEIRA</t>
+  </si>
+  <si>
+    <t>JANELA 8501 À 10000</t>
+  </si>
+  <si>
+    <t>CAMA AUXILIAR</t>
+  </si>
+  <si>
+    <t>LAVA LOUÇA 1</t>
+  </si>
+  <si>
+    <t>CONJ DE CHÁ E CAFÉ</t>
+  </si>
+  <si>
+    <t>MALA SOFT</t>
+  </si>
+  <si>
+    <t>FERRAMENTA 2</t>
+  </si>
+  <si>
+    <t>COLCHÃO ESPUMA CASAL</t>
+  </si>
+  <si>
+    <t>REL MASC DIGITAL</t>
+  </si>
+  <si>
+    <t>FIO E FITA DENTAL</t>
+  </si>
+  <si>
+    <t>BALAS E GULOSEIMAS</t>
+  </si>
+  <si>
+    <t>MOCHILETE</t>
+  </si>
+  <si>
+    <t>CABECEIRAS</t>
+  </si>
+  <si>
+    <t>TÊNIS QD/MESA/SQUASH</t>
+  </si>
+  <si>
+    <t>ANTITUSSÍGENO SIM</t>
+  </si>
+  <si>
+    <t>ROUP COR ATÉ 2 PTS</t>
+  </si>
+  <si>
+    <t>ROUP INFANTIL 4/5 P</t>
+  </si>
+  <si>
+    <t>BRONCODILATADOR GEN</t>
+  </si>
+  <si>
+    <t>GELADEIRA 2P FF</t>
+  </si>
+  <si>
+    <t>ANTIARTRÓSICO REF</t>
+  </si>
+  <si>
+    <t>PORTÁTIL INSTRUM 2</t>
+  </si>
+  <si>
+    <t>COMPL ALIMENTAR INF</t>
+  </si>
+  <si>
+    <t>CADEIRA DE COPA</t>
+  </si>
+  <si>
+    <t>LVR RELIGIOSO</t>
+  </si>
+  <si>
+    <t>ÁGUA OXIGENADA</t>
+  </si>
+  <si>
+    <t>SHAMPOO INFANTIL</t>
+  </si>
+  <si>
+    <t>CADEIRA P/ESCRITÓRIO</t>
+  </si>
+  <si>
+    <t>ÓLEO LUBRIF P/ AUTO</t>
+  </si>
+  <si>
+    <t>TELEF CELULAR PÓS</t>
+  </si>
+  <si>
+    <t>HIDRATANTE INFANTIL</t>
+  </si>
+  <si>
+    <t>ANALGÉSICO GEN</t>
+  </si>
+  <si>
+    <t>ANTIACNE</t>
+  </si>
+  <si>
+    <t>CONJ PLAYSET/MENINOS</t>
+  </si>
+  <si>
+    <t>APARELHO BLU-RAY</t>
+  </si>
+  <si>
+    <t>CJ JARDIM FERRO</t>
+  </si>
+  <si>
+    <t>RÁDIOS AUTO 1</t>
+  </si>
+  <si>
+    <t>COMPL ALIMENTAR</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS DE ÁUDIO</t>
+  </si>
+  <si>
+    <t>MALA INFANTIL</t>
+  </si>
+  <si>
+    <t>ANTIARTRÍTICO REF</t>
+  </si>
+  <si>
+    <t>CURATIVO</t>
+  </si>
+  <si>
+    <t>ANTIESPASMÓDICO SIM</t>
+  </si>
+  <si>
+    <t>SAMBA&amp;PAGODE</t>
   </si>
   <si>
     <t>SECADOR</t>
   </si>
   <si>
-    <t>ANTITABAGISMO REF</t>
+    <t>ACHOCOLATADO</t>
+  </si>
+  <si>
+    <t>COMPOSTOS</t>
+  </si>
+  <si>
+    <t>ESCOVA MODELADORA</t>
+  </si>
+  <si>
+    <t>CABOS E CAPAS</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS INFANTIS</t>
+  </si>
+  <si>
+    <t>CAIXA ORGANIZADORA</t>
+  </si>
+  <si>
+    <t>TORNEIRA</t>
+  </si>
+  <si>
+    <t>PANELEIRO DE MADEIRA</t>
+  </si>
+  <si>
+    <t>CARTÃO SERVIÇO AUTO</t>
+  </si>
+  <si>
+    <t>FERRO DE VIAGEM</t>
+  </si>
+  <si>
+    <t>ÓLEO LUBRIF P/ MOTO</t>
+  </si>
+  <si>
+    <t>COLCHÃO ESPUMA SOLT</t>
+  </si>
+  <si>
+    <t>BROCAS</t>
+  </si>
+  <si>
+    <t>ESTIMULANTE REF</t>
+  </si>
+  <si>
+    <t>REG D FUNÇÃO INT SIM</t>
+  </si>
+  <si>
+    <t>MÁQUINA DE COSTURA 2</t>
+  </si>
+  <si>
+    <t>CÔMODA</t>
+  </si>
+  <si>
+    <t>BANHEIRA</t>
+  </si>
+  <si>
+    <t>APARADOR</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS P/CABELO</t>
+  </si>
+  <si>
+    <t>NO BREAK</t>
+  </si>
+  <si>
+    <t>ANTIGOTOSO REF</t>
+  </si>
+  <si>
+    <t>REL MASC AUTOMÁTICO</t>
+  </si>
+  <si>
+    <t>TV LED DE 55" À 59"</t>
+  </si>
+  <si>
+    <t>TV DE PLASMA</t>
+  </si>
+  <si>
+    <t>CONJ SEG RESIDENCIAL</t>
   </si>
   <si>
     <t>PROTET SOLAR FACIAL</t>
   </si>
   <si>
-    <t>SAMBA&amp;PAGODE</t>
-  </si>
-  <si>
-    <t>BALCÃO COZ AÇO</t>
-  </si>
-  <si>
-    <t>PURIFICADOR DE ÁGUA</t>
-  </si>
-  <si>
-    <t>ANTIANÊMICO SIM</t>
-  </si>
-  <si>
-    <t>CARTÃO SERVIÇO AUTO</t>
-  </si>
-  <si>
-    <t>ANTIESPASMÓDICO SIM</t>
-  </si>
-  <si>
-    <t>ÓLEO CORPORAL</t>
-  </si>
-  <si>
-    <t>CALCULADORA</t>
-  </si>
-  <si>
-    <t>COOKTOP À GÁS</t>
-  </si>
-  <si>
-    <t>APARADOR</t>
-  </si>
-  <si>
-    <t>ÓLEO LUBRIF P/ AUTO</t>
-  </si>
-  <si>
-    <t>ENERGÉTICO</t>
-  </si>
-  <si>
-    <t>CAMA AUXILIAR</t>
-  </si>
-  <si>
-    <t>REP DE FLORA INT SIM</t>
-  </si>
-  <si>
-    <t>ANTI-HEMORROIDA SIM</t>
-  </si>
-  <si>
-    <t>COLÔNIA FEMININA</t>
-  </si>
-  <si>
-    <t>ROUP INFANTIL 4/5 P</t>
-  </si>
-  <si>
-    <t>FRALDA M</t>
-  </si>
-  <si>
-    <t>FERRO DE VIAGEM</t>
-  </si>
-  <si>
-    <t>SALADEIRAS/SOPEIRAS</t>
-  </si>
-  <si>
-    <t>RÁDIOS AUTO 1</t>
-  </si>
-  <si>
-    <t>ASSADEIRAS/FÔRMAS</t>
-  </si>
-  <si>
-    <t>TELEFONE FIXO 1</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS P/CABELO</t>
-  </si>
-  <si>
-    <t>FERRAMENTA 2</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS DE ÁUDIO</t>
-  </si>
-  <si>
-    <t>FREEZERS 2</t>
-  </si>
-  <si>
     <t>DUCHA/CHUVE/CAMPAINH</t>
   </si>
   <si>
-    <t>FIO E FITA DENTAL</t>
-  </si>
-  <si>
-    <t>SOM 1</t>
-  </si>
-  <si>
-    <t>LIXADEIRA</t>
-  </si>
-  <si>
-    <t>ANTIARTRÓSICO REF</t>
-  </si>
-  <si>
-    <t>TV DE PLASMA</t>
-  </si>
-  <si>
-    <t>SMARTPHONE PRÉ-PAGO</t>
-  </si>
-  <si>
-    <t>LAVA LOUÇA 1</t>
-  </si>
-  <si>
-    <t>TÊNIS QD/MESA/SQUASH</t>
-  </si>
-  <si>
-    <t>CAIXA ORGANIZADORA</t>
-  </si>
-  <si>
-    <t>SHAMPOO INFANTIL</t>
-  </si>
-  <si>
-    <t>ACESSÓRIO BRINQUEDO</t>
-  </si>
-  <si>
     <t>TÁBUAS DE PASSAR</t>
   </si>
   <si>
-    <t>MOCHILETE</t>
-  </si>
-  <si>
-    <t>MALA SOFT</t>
-  </si>
-  <si>
-    <t>COLCHÃO ESPUMA SOLT</t>
-  </si>
-  <si>
-    <t>BATEDEIRA</t>
-  </si>
-  <si>
-    <t>CJ JARDIM FERRO</t>
-  </si>
-  <si>
-    <t>ESTUFA INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>MESA DE CENTRO</t>
-  </si>
-  <si>
-    <t>CADEIRA DE COPA</t>
-  </si>
-  <si>
-    <t>MODEM</t>
-  </si>
-  <si>
-    <t>BANHEIRA</t>
-  </si>
-  <si>
-    <t>AR COND JANELA 2</t>
-  </si>
-  <si>
-    <t>TELEFONE FIXO 2</t>
-  </si>
-  <si>
-    <t>PASTAS**</t>
-  </si>
-  <si>
-    <t>LENÇO UMEDECIDO INFA</t>
-  </si>
-  <si>
-    <t>CABOS E CAPAS</t>
-  </si>
-  <si>
-    <t>ANTIENXAQUECOSO GEN</t>
-  </si>
-  <si>
-    <t>REPELENTE</t>
-  </si>
-  <si>
-    <t>LÂMINA DEPILATÓRIA</t>
-  </si>
-  <si>
-    <t>LVR FICÇÃO/SUSPENSE</t>
-  </si>
-  <si>
-    <t>ROTEADORES E ADAPTAD</t>
-  </si>
-  <si>
-    <t>ANTITUSSÍGENO SIM</t>
-  </si>
-  <si>
-    <t>ÓLEO LUBRIF P/ MOTO</t>
-  </si>
-  <si>
-    <t>ANTIARTRÍTICO REF</t>
-  </si>
-  <si>
-    <t>ACHOCOLATADO</t>
-  </si>
-  <si>
-    <t>COLCHÃO ESPUMA CASAL</t>
-  </si>
-  <si>
-    <t>DESODORANTE CREME</t>
-  </si>
-  <si>
-    <t>HASTE FLEXÍVEL</t>
-  </si>
-  <si>
-    <t>VALOR EMERGENCIAL</t>
-  </si>
-  <si>
-    <t>VITAMINA SIM</t>
+    <t>CAMA DE SOLTEIRO</t>
   </si>
   <si>
     <t>ASPIRADOR ROBÔ</t>
   </si>
   <si>
-    <t>REG D FUNÇÃO INT SIM</t>
-  </si>
-  <si>
-    <t>ESCOVA MODELADORA</t>
-  </si>
-  <si>
-    <t>JANELA 8501 À 10000</t>
-  </si>
-  <si>
-    <t>ANTIGOTOSO REF</t>
-  </si>
-  <si>
-    <t>JOGOS DIVERSOS BRINQ</t>
-  </si>
-  <si>
-    <t>PANELEIRO DE MADEIRA</t>
-  </si>
-  <si>
-    <t>ANALGÉSICO GEN</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS INFANTIS</t>
-  </si>
-  <si>
-    <t>CAMA DE SOLTEIRO</t>
-  </si>
-  <si>
-    <t>ÁGUA OXIGENADA</t>
-  </si>
-  <si>
-    <t>ENFEITE NATALINO</t>
-  </si>
-  <si>
-    <t>CADEIRA GIR S/BRAÇO</t>
-  </si>
-  <si>
-    <t>TRAT D INCON URI REF</t>
-  </si>
-  <si>
-    <t>COMPOSTOS</t>
-  </si>
-  <si>
-    <t>ROUP COR 3/4 PTS</t>
-  </si>
-  <si>
-    <t>ACESSÓRIO P/ TABLET</t>
-  </si>
-  <si>
-    <t>SOFÁ 02 LUGARES</t>
-  </si>
-  <si>
-    <t>PRESERVAT MASCULINO</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS TELEFONIA</t>
-  </si>
-  <si>
-    <t>ANTISSINAIS</t>
-  </si>
-  <si>
-    <t>APARELHO BLU-RAY</t>
-  </si>
-  <si>
-    <t>PROTETOR DIA ÍNTIMO</t>
-  </si>
-  <si>
-    <t>SABONETE LÍQ ÍNTIMO</t>
-  </si>
-  <si>
-    <t>NOTEBOOK 1</t>
-  </si>
-  <si>
-    <t>PUFF/ALMOFADÃO</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM INFORM</t>
-  </si>
-  <si>
-    <t>P/JARD/AGRÍC MANUAL</t>
-  </si>
-  <si>
-    <t>REL MASC AUTOMÁTICO</t>
-  </si>
-  <si>
-    <t>CADEIRA P/ESCRITÓRIO</t>
-  </si>
-  <si>
-    <t>CONJ PLAYSET/MENINOS</t>
-  </si>
-  <si>
-    <t>ANTIULCEROSO GEN</t>
-  </si>
-  <si>
-    <t>MALA INFANTIL</t>
-  </si>
-  <si>
-    <t>TV LED DE 55" À 59"</t>
-  </si>
-  <si>
-    <t>CURATIVO</t>
-  </si>
-  <si>
-    <t>CÔMODA</t>
-  </si>
-  <si>
-    <t>ANTIACNE</t>
-  </si>
-  <si>
-    <t>ÁLCOOL</t>
-  </si>
-  <si>
-    <t>MÁQUINA DE COSTURA 2</t>
-  </si>
-  <si>
-    <t>COMPL ALIMENTAR INF</t>
-  </si>
-  <si>
-    <t>PORTÁTIL INSTRUM</t>
-  </si>
-  <si>
-    <t>REL MASC DIGITAL</t>
-  </si>
-  <si>
-    <t>TELEF CELULAR PÓS</t>
-  </si>
-  <si>
-    <t>CALMANTE REF</t>
-  </si>
-  <si>
-    <t>CONJ SEG RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>CABECEIRAS</t>
-  </si>
-  <si>
-    <t>ANTIBACTERIANO GENÉR</t>
-  </si>
-  <si>
-    <t>RECHAUD/FONDUE</t>
-  </si>
-  <si>
-    <t>LVR RELIGIOSO</t>
-  </si>
-  <si>
-    <t>ROUP COR ATÉ 2 PTS</t>
-  </si>
-  <si>
-    <t>COMPL ALIMENTAR</t>
-  </si>
-  <si>
-    <t>NÁUTICO</t>
-  </si>
-  <si>
-    <t>BANDEJ/TRAVES/BAIXEL</t>
-  </si>
-  <si>
-    <t>LANCETAS E TIRAS</t>
-  </si>
-  <si>
-    <t>CICATRIZANTE REF</t>
-  </si>
-  <si>
-    <t>COIFA DE PAREDE</t>
-  </si>
-  <si>
-    <t>PORTÁTIL INSTRUM 2</t>
-  </si>
-  <si>
-    <t>ESFOLIANTE</t>
-  </si>
-  <si>
-    <t>DILATADOR NASAL</t>
-  </si>
-  <si>
-    <t>NO BREAK</t>
-  </si>
-  <si>
-    <t>BRONCODILATADOR GEN</t>
-  </si>
-  <si>
-    <t>BALAS E GULOSEIMAS</t>
-  </si>
-  <si>
-    <t>FORNO ELÉTRICO</t>
-  </si>
-  <si>
-    <t>GELADEIRA 2P FF</t>
-  </si>
-  <si>
-    <t>ESTIMULANTE REF</t>
-  </si>
-  <si>
-    <t>SABONETE INFANTIL</t>
-  </si>
-  <si>
-    <t>AUX TRAT OBESIDA REF</t>
-  </si>
-  <si>
-    <t>BROCAS</t>
-  </si>
-  <si>
-    <t>CONJ DE CHÁ E CAFÉ</t>
-  </si>
-  <si>
-    <t>TORNEIRA</t>
-  </si>
-  <si>
-    <t>NOTEBOOK 2</t>
-  </si>
-  <si>
-    <t>HIDRATANTE INFANTIL</t>
+    <t>BULE/CHALEIRA</t>
+  </si>
+  <si>
+    <t>CADERNO BROCHURÃO</t>
+  </si>
+  <si>
+    <t>REPELENTE INFANTIL</t>
+  </si>
+  <si>
+    <t>FILMADORA</t>
+  </si>
+  <si>
+    <t>COLC/ACESS CAMA/COLC</t>
+  </si>
+  <si>
+    <t>MESA PLÁSTICA</t>
+  </si>
+  <si>
+    <t>ANTI-INF Ñ ESTER GEN</t>
+  </si>
+  <si>
+    <t>COL DE FEZES E URINA</t>
+  </si>
+  <si>
+    <t>HORMÔNIO REF</t>
+  </si>
+  <si>
+    <t>ÔMEGA 3 E 6</t>
+  </si>
+  <si>
+    <t>ESPREMEDOR ELÉTRICO</t>
+  </si>
+  <si>
+    <t>CARREGADOR/PILHA</t>
+  </si>
+  <si>
+    <t>ARTIGOS ESPORTIVOS</t>
+  </si>
+  <si>
+    <t>TRAT D GRIP RESF SIM</t>
+  </si>
+  <si>
+    <t>LOÇÃO,GEL E ÓLEO PÓS</t>
+  </si>
+  <si>
+    <t>SAB LIQ FITOTERÁPICO</t>
+  </si>
+  <si>
+    <t>SPLIT INV18001À30000</t>
+  </si>
+  <si>
+    <t>VASOS</t>
+  </si>
+  <si>
+    <t>NATAÇÃO</t>
+  </si>
+  <si>
+    <t>SOFÁ 03 LUGARES</t>
+  </si>
+  <si>
+    <t>VASODILATADOR REF</t>
+  </si>
+  <si>
+    <t>CERCADO</t>
+  </si>
+  <si>
+    <t>ANTICONCEPCIONAL GEN</t>
+  </si>
+  <si>
+    <t>MESA P/ ESCRITÓRIO</t>
+  </si>
+  <si>
+    <t>FERRAMENTA 1</t>
+  </si>
+  <si>
+    <t>DESODORANTE AEROSOL</t>
+  </si>
+  <si>
+    <t>BOLSAS</t>
+  </si>
+  <si>
+    <t>APARELHO DVD</t>
+  </si>
+  <si>
+    <t>DUCHA GINECOLÓGICA</t>
+  </si>
+  <si>
+    <t>ANTIGOTOSO GEN</t>
+  </si>
+  <si>
+    <t>RÁDIO GRAVADOR</t>
+  </si>
+  <si>
+    <t>LAV AUTO DE 9 A 11KG</t>
+  </si>
+  <si>
+    <t>RACK</t>
+  </si>
+  <si>
+    <t>TESOURA E CORTADOR D</t>
+  </si>
+  <si>
+    <t>MOTOR DE POPA</t>
+  </si>
+  <si>
+    <t>ÓLEOS</t>
+  </si>
+  <si>
+    <t>ANTIESPASMÓDICO REF</t>
+  </si>
+  <si>
+    <t>SERRA CIRCULAR</t>
+  </si>
+  <si>
+    <t>MOCHILA P/ NOTEBOOK</t>
+  </si>
+  <si>
+    <t>TROCA GARANTIDA 2</t>
+  </si>
+  <si>
+    <t>PATINAÇÃO E SKATE</t>
+  </si>
+  <si>
+    <t>TEL CELULAR LIVRE</t>
+  </si>
+  <si>
+    <t>FORNO À GÁS</t>
+  </si>
+  <si>
+    <t>DESCONGEST NASAL REF</t>
+  </si>
+  <si>
+    <t>ANTIEMÉTICO SIM</t>
+  </si>
+  <si>
+    <t>ACESS DE COZINHA</t>
+  </si>
+  <si>
+    <t>SPLIT INV10001À18000</t>
+  </si>
+  <si>
+    <t>EXPECTOR E MUCOL REF</t>
+  </si>
+  <si>
+    <t>EXPECTOR E MUCOL SIM</t>
+  </si>
+  <si>
+    <t>PELÚCIA</t>
+  </si>
+  <si>
+    <t>VIDEO GAMES 1</t>
+  </si>
+  <si>
+    <t>BELICHE/TRILICHE</t>
+  </si>
+  <si>
+    <t>COMPL DE QUARTO</t>
+  </si>
+  <si>
+    <t>LUBRIFICANTES</t>
+  </si>
+  <si>
+    <t>TOALHA UMED GERIÁTRI</t>
+  </si>
+  <si>
+    <t>IMPRESSORA/SCANNER 1</t>
+  </si>
+  <si>
+    <t>ANTIVARICOSO SIM</t>
+  </si>
+  <si>
+    <t>SOMBRA</t>
+  </si>
+  <si>
+    <t>TUPIA/MICRORETÍFICA</t>
+  </si>
+  <si>
+    <t>CREME P/ MÃOS</t>
+  </si>
+  <si>
+    <t>LAVADORA DE PRESSÃO</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS VÍDEO</t>
+  </si>
+  <si>
+    <t>TELEFONE CELULAR 1</t>
   </si>
   <si>
     <t>ÓLEO E REP DE PONTAS</t>
   </si>
   <si>
-    <t>TRAT D GRIP RESF SIM</t>
-  </si>
-  <si>
-    <t>COL DE FEZES E URINA</t>
+    <t>GELADEIRA 2P CDF</t>
+  </si>
+  <si>
+    <t>MICROFONE</t>
+  </si>
+  <si>
+    <t>ANTILIPÊMICO GEN</t>
+  </si>
+  <si>
+    <t>HIPOGLICEMI ORAL SIM</t>
+  </si>
+  <si>
+    <t>CAIXA ACÚSTICA</t>
+  </si>
+  <si>
+    <t>AMAMENTAÇÃO</t>
+  </si>
+  <si>
+    <t>PROJETOR</t>
+  </si>
+  <si>
+    <t>FORNO MICRO-ONDAS</t>
+  </si>
+  <si>
+    <t>LEITE EM PÓ</t>
+  </si>
+  <si>
+    <t>ESCORREDOR</t>
+  </si>
+  <si>
+    <t>COPOS/CANECAS</t>
   </si>
   <si>
     <t>CÔMODA INFANTIL</t>
   </si>
   <si>
-    <t>MOTOR DE POPA</t>
+    <t>VITAMINA REF</t>
+  </si>
+  <si>
+    <t>CIRCULADOR</t>
+  </si>
+  <si>
+    <t>OUTRAS MÍDIAS</t>
+  </si>
+  <si>
+    <t>FONE OUVIDO IN EAR</t>
+  </si>
+  <si>
+    <t>ANTISSÉPTI BUCAL INF</t>
+  </si>
+  <si>
+    <t>PAPINHAS</t>
+  </si>
+  <si>
+    <t>COLÔNIA INFANTIL</t>
+  </si>
+  <si>
+    <t>TRAVESS E ALMOFADAS</t>
+  </si>
+  <si>
+    <t>PROTETOR DE MAMILO</t>
+  </si>
+  <si>
+    <t>LIQUIDIF ATÉ 3 VELOC</t>
+  </si>
+  <si>
+    <t>ANTIHELMÍNTICO SIM</t>
+  </si>
+  <si>
+    <t>COMPRESSOR AR/AQUEC</t>
+  </si>
+  <si>
+    <t>SABONETE BARRA</t>
+  </si>
+  <si>
+    <t>TELEF CELULAR PRÉ</t>
+  </si>
+  <si>
+    <t>MEDIDOR DE GLICOSE</t>
   </si>
   <si>
     <t>BASQUETE</t>
   </si>
   <si>
-    <t>CREME P/ MÃOS</t>
-  </si>
-  <si>
-    <t>ESCORREDOR</t>
-  </si>
-  <si>
     <t>ACESS DE MAQUIAGEM</t>
   </si>
   <si>
-    <t>TUPIA/MICRORETÍFICA</t>
+    <t>LENÇO DE PAPEL</t>
+  </si>
+  <si>
+    <t>ANTI-INF Ñ ESTER REF</t>
+  </si>
+  <si>
+    <t>DESPERTADOR</t>
+  </si>
+  <si>
+    <t>ANTIULCEROSO SIM</t>
   </si>
   <si>
     <t>AR COND JANELA 1</t>
   </si>
   <si>
-    <t>SERRA CIRCULAR</t>
-  </si>
-  <si>
-    <t>ANTIULCEROSO SIM</t>
-  </si>
-  <si>
-    <t>APARELHO DVD</t>
-  </si>
-  <si>
-    <t>SPLIT INV18001À30000</t>
-  </si>
-  <si>
-    <t>EXPECTOR E MUCOL SIM</t>
-  </si>
-  <si>
-    <t>FONE OUVIDO IN EAR</t>
-  </si>
-  <si>
-    <t>DESPERTADOR</t>
-  </si>
-  <si>
-    <t>ÔMEGA 3 E 6</t>
-  </si>
-  <si>
-    <t>TROCA GARANTIDA 2</t>
-  </si>
-  <si>
-    <t>LUBRIFICANTES</t>
-  </si>
-  <si>
-    <t>TESOURA E CORTADOR D</t>
-  </si>
-  <si>
-    <t>FORNO MICRO-ONDAS</t>
-  </si>
-  <si>
-    <t>MEDIDOR DE GLICOSE</t>
-  </si>
-  <si>
-    <t>ANTILIPÊMICO GEN</t>
-  </si>
-  <si>
-    <t>DESCONGEST NASAL REF</t>
-  </si>
-  <si>
-    <t>ACESS DE COZINHA</t>
-  </si>
-  <si>
-    <t>BOLSAS</t>
-  </si>
-  <si>
-    <t>SPLIT INV10001À18000</t>
-  </si>
-  <si>
-    <t>REPELENTE INFANTIL</t>
-  </si>
-  <si>
-    <t>LAV AUTO DE 9 A 11KG</t>
+    <t>RACK/PAINEL</t>
+  </si>
+  <si>
+    <t>TESTES DE GRAVIDEZ</t>
+  </si>
+  <si>
+    <t>CELULAR/MP3</t>
+  </si>
+  <si>
+    <t>CHOCOLATE</t>
   </si>
   <si>
     <t>SHAMPOO</t>
   </si>
   <si>
-    <t>CERCADO</t>
-  </si>
-  <si>
-    <t>MESA PLÁSTICA</t>
-  </si>
-  <si>
-    <t>CHOCOLATE</t>
-  </si>
-  <si>
-    <t>HIPOGLICEMI ORAL SIM</t>
-  </si>
-  <si>
-    <t>TESTES DE GRAVIDEZ</t>
-  </si>
-  <si>
-    <t>MICROFONE</t>
-  </si>
-  <si>
-    <t>COLÔNIA INFANTIL</t>
-  </si>
-  <si>
-    <t>CELULAR/MP3</t>
-  </si>
-  <si>
-    <t>LEITE EM PÓ</t>
-  </si>
-  <si>
-    <t>ANTIGOTOSO GEN</t>
-  </si>
-  <si>
-    <t>RÁDIO GRAVADOR</t>
-  </si>
-  <si>
-    <t>ANTIVARICOSO SIM</t>
-  </si>
-  <si>
-    <t>TELEFONE CELULAR 1</t>
-  </si>
-  <si>
-    <t>HORMÔNIO REF</t>
-  </si>
-  <si>
-    <t>IMPRESSORA/SCANNER 1</t>
-  </si>
-  <si>
-    <t>ANTIHELMÍNTICO SIM</t>
-  </si>
-  <si>
-    <t>PAPINHAS</t>
-  </si>
-  <si>
-    <t>EXPECTOR E MUCOL REF</t>
-  </si>
-  <si>
-    <t>ANTIESPASMÓDICO REF</t>
-  </si>
-  <si>
-    <t>FORNO À GÁS</t>
+    <t>ANTI-HIPERTENSIV REF</t>
   </si>
   <si>
     <t>TV LED DE 16" À 20"</t>
   </si>
   <si>
-    <t>DESODORANTE AEROSOL</t>
-  </si>
-  <si>
-    <t>CIRCULADOR</t>
-  </si>
-  <si>
-    <t>OUTRAS MÍDIAS</t>
-  </si>
-  <si>
-    <t>ANTIEMÉTICO SIM</t>
-  </si>
-  <si>
-    <t>LIQUIDIF ATÉ 3 VELOC</t>
-  </si>
-  <si>
-    <t>ANTISSÉPTI BUCAL INF</t>
-  </si>
-  <si>
-    <t>TRAVESS E ALMOFADAS</t>
-  </si>
-  <si>
-    <t>NATAÇÃO</t>
-  </si>
-  <si>
-    <t>CADERNO BROCHURÃO</t>
-  </si>
-  <si>
-    <t>CARREGADOR/PILHA</t>
-  </si>
-  <si>
-    <t>ARTIGOS ESPORTIVOS</t>
-  </si>
-  <si>
-    <t>ANTI-INF Ñ ESTER REF</t>
-  </si>
-  <si>
-    <t>COMPRESSOR AR/AQUEC</t>
-  </si>
-  <si>
-    <t>TEL CELULAR LIVRE</t>
-  </si>
-  <si>
-    <t>SOMBRA</t>
-  </si>
-  <si>
-    <t>LENÇO DE PAPEL</t>
-  </si>
-  <si>
-    <t>DUCHA GINECOLÓGICA</t>
-  </si>
-  <si>
-    <t>COPOS/CANECAS</t>
-  </si>
-  <si>
-    <t>SOFÁ 03 LUGARES</t>
-  </si>
-  <si>
-    <t>VITAMINA REF</t>
-  </si>
-  <si>
-    <t>ÓLEOS</t>
-  </si>
-  <si>
-    <t>LAVADORA DE PRESSÃO</t>
-  </si>
-  <si>
-    <t>MOCHILA P/ NOTEBOOK</t>
-  </si>
-  <si>
-    <t>RACK</t>
-  </si>
-  <si>
-    <t>PROJETOR</t>
-  </si>
-  <si>
-    <t>LOÇÃO,GEL E ÓLEO PÓS</t>
-  </si>
-  <si>
-    <t>FERRAMENTA 1</t>
-  </si>
-  <si>
-    <t>BULE/CHALEIRA</t>
-  </si>
-  <si>
-    <t>VASODILATADOR REF</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS VÍDEO</t>
-  </si>
-  <si>
-    <t>ANTI-INF Ñ ESTER GEN</t>
-  </si>
-  <si>
-    <t>RACK/PAINEL</t>
-  </si>
-  <si>
-    <t>TELEF CELULAR PRÉ</t>
-  </si>
-  <si>
-    <t>COLC/ACESS CAMA/COLC</t>
-  </si>
-  <si>
-    <t>FILMADORA</t>
-  </si>
-  <si>
-    <t>SABONETE BARRA</t>
-  </si>
-  <si>
-    <t>BELICHE/TRILICHE</t>
-  </si>
-  <si>
-    <t>VASOS</t>
-  </si>
-  <si>
-    <t>MESA P/ ESCRITÓRIO</t>
-  </si>
-  <si>
-    <t>PROTETOR DE MAMILO</t>
-  </si>
-  <si>
-    <t>TOALHA UMED GERIÁTRI</t>
-  </si>
-  <si>
-    <t>PELÚCIA</t>
-  </si>
-  <si>
-    <t>GELADEIRA 2P CDF</t>
-  </si>
-  <si>
-    <t>PATINAÇÃO E SKATE</t>
-  </si>
-  <si>
-    <t>ANTICONCEPCIONAL GEN</t>
-  </si>
-  <si>
-    <t>AMAMENTAÇÃO</t>
-  </si>
-  <si>
-    <t>ESPREMEDOR ELÉTRICO</t>
-  </si>
-  <si>
-    <t>COMPL DE QUARTO</t>
-  </si>
-  <si>
-    <t>CAIXA ACÚSTICA</t>
-  </si>
-  <si>
-    <t>SAB LIQ FITOTERÁPICO</t>
-  </si>
-  <si>
-    <t>VIDEO GAMES 1</t>
-  </si>
-  <si>
-    <t>ANTI-HIPERTENSIV REF</t>
+    <t>APARELHO GPS</t>
+  </si>
+  <si>
+    <t>PANELAS</t>
+  </si>
+  <si>
+    <t>MINERAIS REF</t>
+  </si>
+  <si>
+    <t>ACESS PARA BANHEIRO</t>
+  </si>
+  <si>
+    <t>SUCO</t>
+  </si>
+  <si>
+    <t>ESTIMULANTE SIM</t>
+  </si>
+  <si>
+    <t>MESA P/ COMP/ESCRIV</t>
+  </si>
+  <si>
+    <t>FRALDA XXG</t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS PS3/PS4</t>
+  </si>
+  <si>
+    <t>BISCOITOS</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA</t>
+  </si>
+  <si>
+    <t>CONJ LOUÇA JANTAR</t>
+  </si>
+  <si>
+    <t>AGULHAS E SERINGAS</t>
+  </si>
+  <si>
+    <t>RELAXANTE MUSCUL SIM</t>
+  </si>
+  <si>
+    <t>DVD COMÉDIA</t>
+  </si>
+  <si>
+    <t>PORTÁTIL ANTENAS</t>
+  </si>
+  <si>
+    <t>ABSORVENTE P/SEIOS</t>
+  </si>
+  <si>
+    <t>SUP AÉREO/BARRA/GANC</t>
+  </si>
+  <si>
+    <t>PROTETOR SOLAR INFAN</t>
+  </si>
+  <si>
+    <t>SHAMPOO DERMO</t>
+  </si>
+  <si>
+    <t>LUBRIFICA OCULAR REF</t>
+  </si>
+  <si>
+    <t>APAR RESPIRATÓRIO</t>
+  </si>
+  <si>
+    <t>VIDEO KARAOKÊ 1</t>
+  </si>
+  <si>
+    <t>UMIDIFICADOR/DESUMID</t>
+  </si>
+  <si>
+    <t>ANTI-HIPERTENSIV GEN</t>
+  </si>
+  <si>
+    <t>EDUCATIVO/PRÉ-ESCOLA</t>
+  </si>
+  <si>
+    <t>BERÇO</t>
+  </si>
+  <si>
+    <t>UMIDIFICADOR</t>
+  </si>
+  <si>
+    <t>TALCO INFANTIL</t>
+  </si>
+  <si>
+    <t>PISCINA</t>
+  </si>
+  <si>
+    <t>CAMA BOX/AMER CASAL</t>
+  </si>
+  <si>
+    <t>BALANÇA P/ BANHEIRO</t>
+  </si>
+  <si>
+    <t>ANTIGLAUCOMATOSO SIM</t>
+  </si>
+  <si>
+    <t>LIQUIDIF ACIMA 3 VEL</t>
+  </si>
+  <si>
+    <t>MODULADO PARA QUARTO</t>
+  </si>
+  <si>
+    <t>ASPIRADOR NASAL</t>
+  </si>
+  <si>
+    <t>ANTIPSICÓTICO REF</t>
+  </si>
+  <si>
+    <t>NOTEBOOK</t>
+  </si>
+  <si>
+    <t>ANTIHELMÍNTICO GEN</t>
+  </si>
+  <si>
+    <t>MÁQUINA DE FAZER PÃO</t>
+  </si>
+  <si>
+    <t>REP DE FLORA INT REF</t>
+  </si>
+  <si>
+    <t>BATOM,BRILHO,PRO LAB</t>
+  </si>
+  <si>
+    <t>CUTELARIA</t>
+  </si>
+  <si>
+    <t>GARRAFÃO</t>
+  </si>
+  <si>
+    <t>ROCK NACIONAL</t>
+  </si>
+  <si>
+    <t>TABLET 1</t>
+  </si>
+  <si>
+    <t>FIXADOR P/CABELO</t>
+  </si>
+  <si>
+    <t>IMPRESSORA</t>
+  </si>
+  <si>
+    <t>RELAXANTE MUSCUL REF</t>
+  </si>
+  <si>
+    <t>ANALGÉSICO REF</t>
+  </si>
+  <si>
+    <t>NUTRACÊUTICO REF</t>
+  </si>
+  <si>
+    <t>TELEF CONVENC S/FIO</t>
+  </si>
+  <si>
+    <t>MÍDIAS PS3/PS4</t>
+  </si>
+  <si>
+    <t>PAINEL</t>
+  </si>
+  <si>
+    <t>WALKIE TALKIE</t>
+  </si>
+  <si>
+    <t>RÁDIO RELÓGIO</t>
+  </si>
+  <si>
+    <t>ANTIVERTIGINOSO SIM</t>
+  </si>
+  <si>
+    <t>REMOVEDOR DE ESMALTE</t>
+  </si>
+  <si>
+    <t>PIA</t>
+  </si>
+  <si>
+    <t>REL MASC ANA/DIGITAL</t>
+  </si>
+  <si>
+    <t>ANTIOSTEOPORÓTIC SIM</t>
+  </si>
+  <si>
+    <t>ARCA BUF/BALC SALA</t>
+  </si>
+  <si>
+    <t>VARAL</t>
+  </si>
+  <si>
+    <t>ANTIVIRAL GEN</t>
+  </si>
+  <si>
+    <t>ANTICELULITE E FIRMA</t>
+  </si>
+  <si>
+    <t>HIPNÓTICO-SEDATI GEN</t>
+  </si>
+  <si>
+    <t>HEPATOPROTETOR SIM</t>
+  </si>
+  <si>
+    <t>LUMIN. DE EMERGÊNCIA</t>
+  </si>
+  <si>
+    <t>COLCHÃO MOLA CASAL</t>
+  </si>
+  <si>
+    <t>TELEFONE RURAL</t>
+  </si>
+  <si>
+    <t>ACESS P/CORPO E BANH</t>
   </si>
   <si>
     <t>CHUPETAS E MORDEDORE</t>
   </si>
   <si>
-    <t>PISCINA</t>
-  </si>
-  <si>
-    <t>LIQUIDIF ACIMA 3 VEL</t>
-  </si>
-  <si>
-    <t>FITA ADESIVA</t>
-  </si>
-  <si>
-    <t>ANTICELULITE E FIRMA</t>
-  </si>
-  <si>
-    <t>UMIDIFICADOR</t>
-  </si>
-  <si>
-    <t>BISCOITOS</t>
-  </si>
-  <si>
-    <t>ABSORVENTE P/SEIOS</t>
-  </si>
-  <si>
-    <t>SUP AÉREO/BARRA/GANC</t>
-  </si>
-  <si>
-    <t>MÍDIAS PS3/PS4</t>
-  </si>
-  <si>
-    <t>ROCK NACIONAL</t>
-  </si>
-  <si>
-    <t>PAINEL</t>
-  </si>
-  <si>
-    <t>HIPNÓTICO-SEDATI GEN</t>
-  </si>
-  <si>
-    <t>SUCO</t>
-  </si>
-  <si>
-    <t>PORTÁTIL ANTENAS</t>
-  </si>
-  <si>
-    <t>ANTIPSICÓTICO REF</t>
-  </si>
-  <si>
-    <t>IMPRESSORA</t>
-  </si>
-  <si>
-    <t>HEPATOPROTETOR SIM</t>
-  </si>
-  <si>
-    <t>BATOM,BRILHO,PRO LAB</t>
-  </si>
-  <si>
-    <t>EDUCATIVO/PRÉ-ESCOLA</t>
-  </si>
-  <si>
-    <t>ANTI-HIPERTENSIV GEN</t>
-  </si>
-  <si>
-    <t>REL MASC ANA/DIGITAL</t>
-  </si>
-  <si>
-    <t>BALANÇA P/ BANHEIRO</t>
-  </si>
-  <si>
-    <t>TELEFONE RURAL</t>
-  </si>
-  <si>
-    <t>TABLET 1</t>
-  </si>
-  <si>
-    <t>RELAXANTE MUSCUL SIM</t>
-  </si>
-  <si>
     <t>BOLSA/MOCHILA P/FERR</t>
   </si>
   <si>
+    <t>FRITADEIRA</t>
+  </si>
+  <si>
+    <t>REGIONAIS</t>
+  </si>
+  <si>
+    <t>MOCHILA URBANA</t>
+  </si>
+  <si>
+    <t>ANTIAGREGR PLAQ REF</t>
+  </si>
+  <si>
     <t>DRONE CÂM/MÁQ FOTOGR</t>
   </si>
   <si>
-    <t>ANTIOSTEOPORÓTIC SIM</t>
-  </si>
-  <si>
-    <t>WALKIE TALKIE</t>
-  </si>
-  <si>
-    <t>NUTRACÊUTICO REF</t>
-  </si>
-  <si>
-    <t>ANTIVIRAL GEN</t>
-  </si>
-  <si>
-    <t>LUMIN. DE EMERGÊNCIA</t>
-  </si>
-  <si>
-    <t>ANALGÉSICO REF</t>
-  </si>
-  <si>
-    <t>APARELHO GPS</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS PS3/PS4</t>
-  </si>
-  <si>
-    <t>CAMA BOX/AMER CASAL</t>
-  </si>
-  <si>
-    <t>FRITADEIRA</t>
-  </si>
-  <si>
-    <t>PANELAS</t>
-  </si>
-  <si>
-    <t>APAR RESPIRATÓRIO</t>
-  </si>
-  <si>
-    <t>PROTETOR SOLAR INFAN</t>
-  </si>
-  <si>
-    <t>RÁDIO RELÓGIO</t>
-  </si>
-  <si>
-    <t>REP DE FLORA INT REF</t>
-  </si>
-  <si>
-    <t>FIXADOR P/CABELO</t>
-  </si>
-  <si>
-    <t>SHAMPOO DERMO</t>
-  </si>
-  <si>
-    <t>LUBRIFICA OCULAR REF</t>
-  </si>
-  <si>
-    <t>ACESS P/CORPO E BANH</t>
-  </si>
-  <si>
-    <t>MOCHILA URBANA</t>
-  </si>
-  <si>
-    <t>ANTIGLAUCOMATOSO SIM</t>
-  </si>
-  <si>
-    <t>COLCHÃO MOLA CASAL</t>
-  </si>
-  <si>
-    <t>FRALDA XXG</t>
-  </si>
-  <si>
-    <t>VARAL</t>
-  </si>
-  <si>
-    <t>CUTELARIA</t>
-  </si>
-  <si>
-    <t>RELAXANTE MUSCUL REF</t>
-  </si>
-  <si>
-    <t>REGIONAIS</t>
-  </si>
-  <si>
-    <t>NOTEBOOK</t>
-  </si>
-  <si>
-    <t>AGULHAS E SERINGAS</t>
-  </si>
-  <si>
-    <t>GARRAFÃO</t>
-  </si>
-  <si>
-    <t>ARCA BUF/BALC SALA</t>
-  </si>
-  <si>
-    <t>ASPIRADOR NASAL</t>
-  </si>
-  <si>
-    <t>ANTIAGREGR PLAQ REF</t>
-  </si>
-  <si>
-    <t>PIA</t>
-  </si>
-  <si>
-    <t>MESA P/ COMP/ESCRIV</t>
-  </si>
-  <si>
-    <t>DVD COMÉDIA</t>
-  </si>
-  <si>
-    <t>MODULADO PARA QUARTO</t>
-  </si>
-  <si>
-    <t>ANTIHELMÍNTICO GEN</t>
-  </si>
-  <si>
-    <t>ANTIVERTIGINOSO SIM</t>
-  </si>
-  <si>
-    <t>BERÇO</t>
-  </si>
-  <si>
-    <t>CONJ LOUÇA JANTAR</t>
-  </si>
-  <si>
-    <t>REMOVEDOR DE ESMALTE</t>
-  </si>
-  <si>
-    <t>MINERAIS REF</t>
-  </si>
-  <si>
-    <t>MÁQUINA DE FAZER PÃO</t>
-  </si>
-  <si>
-    <t>UMIDIFICADOR/DESUMID</t>
-  </si>
-  <si>
-    <t>VIDEO KARAOKÊ 1</t>
-  </si>
-  <si>
-    <t>TALCO INFANTIL</t>
-  </si>
-  <si>
-    <t>TELEF CONVENC S/FIO</t>
-  </si>
-  <si>
-    <t>ACESS PARA BANHEIRO</t>
-  </si>
-  <si>
-    <t>ESTIMULANTE SIM</t>
+    <t>ACESS MÁQ E MOTORES</t>
+  </si>
+  <si>
+    <t>PÓ/BASE FACIAL DERMO</t>
+  </si>
+  <si>
+    <t>BARRAS DE CEREAL</t>
   </si>
   <si>
     <t>ANTIDIARREICO REF</t>
   </si>
   <si>
+    <t>ACESSÓRIO P/BANHO</t>
+  </si>
+  <si>
+    <t>BEBIDA ENERGÉTICA</t>
+  </si>
+  <si>
+    <t>TRAT D HIP PROST REF</t>
+  </si>
+  <si>
+    <t>ESCOVAS DE DENTE INF</t>
+  </si>
+  <si>
+    <t>ACESS FERRAMENTAS</t>
+  </si>
+  <si>
+    <t>ANTICOAGULANTE REF</t>
+  </si>
+  <si>
+    <t>LANCHEIRA</t>
+  </si>
+  <si>
     <t>PARAFUSADEIRA</t>
   </si>
   <si>
-    <t>ESCOVAS DE DENTE INF</t>
-  </si>
-  <si>
-    <t>ACESS FERRAMENTAS</t>
+    <t>COLÔNIA MASCULINA</t>
   </si>
   <si>
     <t>ANTILIPÊMICO SIM</t>
   </si>
   <si>
-    <t>LANCHEIRA</t>
-  </si>
-  <si>
-    <t>BARRAS DE CEREAL</t>
-  </si>
-  <si>
-    <t>TRAT D HIP PROST REF</t>
-  </si>
-  <si>
-    <t>ACESS MÁQ E MOTORES</t>
+    <t>NEBULIZADOR</t>
+  </si>
+  <si>
+    <t>DIURÉTICO GEN</t>
+  </si>
+  <si>
+    <t>ANSIOLÍTICOS REF</t>
+  </si>
+  <si>
+    <t>TÔNICO ADSTRINGENTE</t>
+  </si>
+  <si>
+    <t>CHOCOLATE EM PÓ</t>
+  </si>
+  <si>
+    <t>SAPATEIRA/MULTI-USO</t>
+  </si>
+  <si>
+    <t>CONDICIONADOR</t>
+  </si>
+  <si>
+    <t>MÁQUINA DE COSTURA 1</t>
+  </si>
+  <si>
+    <t>ACESS P/ SMARTPHONES</t>
+  </si>
+  <si>
+    <t>LAVA LOUÇA 2</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM ÁUDIO</t>
+  </si>
+  <si>
+    <t>DVD NACIONAL</t>
+  </si>
+  <si>
+    <t>PRIMEIRA INFÂNCIA</t>
   </si>
   <si>
     <t>ARM AÉREO COZ MADEIR</t>
   </si>
   <si>
-    <t>PÓ/BASE FACIAL DERMO</t>
-  </si>
-  <si>
-    <t>DIURÉTICO GEN</t>
-  </si>
-  <si>
-    <t>ACESS P/ SMARTPHONES</t>
-  </si>
-  <si>
     <t>ÁGUA</t>
   </si>
   <si>
-    <t>CHOCOLATE EM PÓ</t>
-  </si>
-  <si>
-    <t>CONDICIONADOR</t>
-  </si>
-  <si>
-    <t>ANSIOLÍTICOS REF</t>
-  </si>
-  <si>
-    <t>BEBIDA ENERGÉTICA</t>
-  </si>
-  <si>
-    <t>MÁQUINA DE COSTURA 1</t>
-  </si>
-  <si>
-    <t>ANTICOAGULANTE REF</t>
-  </si>
-  <si>
-    <t>TÔNICO ADSTRINGENTE</t>
-  </si>
-  <si>
-    <t>PRIMEIRA INFÂNCIA</t>
-  </si>
-  <si>
-    <t>SAPATEIRA/MULTI-USO</t>
-  </si>
-  <si>
-    <t>DVD NACIONAL</t>
-  </si>
-  <si>
-    <t>ACESSÓRIO P/BANHO</t>
-  </si>
-  <si>
-    <t>NEBULIZADOR</t>
-  </si>
-  <si>
-    <t>COLÔNIA MASCULINA</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM ÁUDIO</t>
-  </si>
-  <si>
-    <t>LAVA LOUÇA 2</t>
+    <t>GOMA DE MASCAR</t>
+  </si>
+  <si>
+    <t>RÁDIOS AUTO 2</t>
+  </si>
+  <si>
+    <t>ANTIFADIGA REF</t>
   </si>
   <si>
     <t>FORT D CABELOS E UNH</t>
   </si>
   <si>
-    <t>ANTIFADIGA REF</t>
-  </si>
-  <si>
-    <t>GOMA DE MASCAR</t>
+    <t>KIT COZINHA DE MADEI</t>
   </si>
   <si>
     <t>TOALHA UMEDECIDA</t>
-  </si>
-  <si>
-    <t>KIT COZINHA DE MADEI</t>
-  </si>
-  <si>
-    <t>RÁDIOS AUTO 2</t>
   </si>
   <si>
     <t>ADEGA 1</t>
